--- a/revenue-streamlit/revenue 2023 2032 simulation yearly.xlsx
+++ b/revenue-streamlit/revenue 2023 2032 simulation yearly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db03e8e420626a2/Office/AMG/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{63EB4802-57AD-0F44-B5C6-2C4816D8263D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C5CA79C-D751-7D42-9F25-576BDE270322}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{63EB4802-57AD-0F44-B5C6-2C4816D8263D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{733B6F82-EE60-5E4C-BB7D-4D6338FF3F04}"/>
   <bookViews>
-    <workbookView xWindow="-20360" yWindow="-42700" windowWidth="38400" windowHeight="42700" activeTab="2" xr2:uid="{9DA9C85C-0230-484A-A9A5-3ABA148F8E1D}"/>
+    <workbookView xWindow="18860" yWindow="-27040" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{9DA9C85C-0230-484A-A9A5-3ABA148F8E1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="116">
   <si>
     <t>Ampera</t>
   </si>
@@ -1278,6 +1278,9 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,9 +1316,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5721,37 +5721,37 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>318400736080.66931</c:v>
+                  <c:v>320000736080.66931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>333537651678.32971</c:v>
+                  <c:v>338705101412.07971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>359479028385.64252</c:v>
+                  <c:v>369808233471.06494</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>362952311488.48706</c:v>
+                  <c:v>371183345680.15674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>365108783183.58191</c:v>
+                  <c:v>371661489370.69165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>378482319217.88757</c:v>
+                  <c:v>384827536591.31122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>379942340334.99603</c:v>
+                  <c:v>386159518622.84161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>381042340334.99603</c:v>
+                  <c:v>387259518622.84161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>383336462834.65173</c:v>
+                  <c:v>389547519772.49731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>384334503667.87024</c:v>
+                  <c:v>390543520155.71582</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>384934503667.87024</c:v>
+                  <c:v>391143520155.71582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5794,34 +5794,34 @@
                   <c:v>318004246480.66931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>323660894070.00977</c:v>
+                  <c:v>324960894070.00977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>347333144031.66998</c:v>
+                  <c:v>352415288250.59235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>349746289422.0296</c:v>
+                  <c:v>354240884197.19928</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>350484359077.12445</c:v>
+                  <c:v>354476435847.73425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>349711461383.9754</c:v>
+                  <c:v>354609965690.89905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>351150099532.67609</c:v>
+                  <c:v>355922605204.02161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>352250099532.67609</c:v>
+                  <c:v>357022605204.02161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>354342806082.33173</c:v>
+                  <c:v>359115311753.67725</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>355273708265.55023</c:v>
+                  <c:v>360046213936.89581</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>355873708265.55023</c:v>
+                  <c:v>360646213936.89581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6263,37 +6263,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.80648025591983208</c:v>
+                  <c:v>0.80651318506282987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84027360892539138</c:v>
+                  <c:v>0.84746186247561472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89843040357971071</c:v>
+                  <c:v>0.90940881520945416</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89943787070972747</c:v>
+                  <c:v>0.9061006849015163</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89947903213847469</c:v>
+                  <c:v>0.90275531722103852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92448668561480107</c:v>
+                  <c:v>0.92456308122655606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92220901797165855</c:v>
+                  <c:v>0.92228541358341343</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92220901797165855</c:v>
+                  <c:v>0.92228541358341343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92220901797165855</c:v>
+                  <c:v>0.92228541358341343</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92220901797165855</c:v>
+                  <c:v>0.92228541358341343</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92220901797165855</c:v>
+                  <c:v>0.92228541358341343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6393,43 +6393,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'TE Office Old'!$C$9:$M$9</c:f>
+              <c:f>'TE Office'!$C$51:$M$51</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.80649672049133092</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84029007349689022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.90223684786453839</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90450764156566521</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90454880299441243</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92955645647073892</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.92727878882759629</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92727878882759629</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.92727878882759629</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.92727878882759629</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.92727878882759629</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6834,34 +6801,34 @@
                   <c:v>248951980320.72696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>257601884350.43256</c:v>
+                  <c:v>259869334084.18256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>276123610963.60236</c:v>
+                  <c:v>279770671830.10236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>276479683539.30579</c:v>
+                  <c:v>278616122955.80579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>275719836739.30579</c:v>
+                  <c:v>276680466155.80579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>285149141506.41614</c:v>
+                  <c:v>284995854572.91614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>284722672448.04254</c:v>
+                  <c:v>284567345064.54254</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>284722672448.04254</c:v>
+                  <c:v>284567345064.54254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>285916794947.69824</c:v>
+                  <c:v>285755346214.19824</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>286314835780.91675</c:v>
+                  <c:v>286151346597.41675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>286314835780.91675</c:v>
+                  <c:v>286151346597.41675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9711,6 +9678,88 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542736</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>238803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>151967</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>238803</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC1F973-2215-0243-B919-9C1A9FAFDC81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="226702" y="1227937"/>
+          <a:ext cx="1066800" cy="434731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>SCENARIO </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>friday noon 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10527,7 +10576,9 @@
     <tableColumn id="3" xr3:uid="{AA2A7934-1ED5-1841-9585-036B084CAE84}" name="2020" totalsRowFunction="sum" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="Comma"/>
     <tableColumn id="4" xr3:uid="{513FEEBB-6A8F-574A-8F63-64E55E4DB319}" name="2021" totalsRowFunction="sum" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{BED0975A-DF8E-C54C-B0E5-F85B60CA1335}" name="2022" totalsRowFunction="sum" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{AB8F1B16-FC68-774A-B5DD-4EE17748FA9B}" name="2023" totalsRowFunction="sum" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{AB8F1B16-FC68-774A-B5DD-4EE17748FA9B}" name="2023" totalsRowFunction="sum" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="Comma">
+      <calculatedColumnFormula>16399663023.4286+1300000000</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="7" xr3:uid="{D2F57DD7-6B8F-444D-A81B-D11878E66625}" name="2024" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Comma">
       <calculatedColumnFormula>Table36[[#This Row],[2023]]+(H2-G2)*100*$H$9</calculatedColumnFormula>
     </tableColumn>
@@ -10881,7 +10932,7 @@
   <dimension ref="B2:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="141" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C19" sqref="C19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10937,47 +10988,47 @@
       </c>
       <c r="C3" s="20">
         <f>'TE Office'!C9</f>
-        <v>0.80648025591983208</v>
+        <v>0.80651318506282987</v>
       </c>
       <c r="D3" s="20">
         <f>'TE Office'!D9</f>
-        <v>0.84027360892539138</v>
+        <v>0.84746186247561472</v>
       </c>
       <c r="E3" s="20">
         <f>'TE Office'!E9</f>
-        <v>0.89843040357971071</v>
+        <v>0.90940881520945416</v>
       </c>
       <c r="F3" s="20">
         <f>'TE Office'!F9</f>
-        <v>0.89943787070972747</v>
+        <v>0.9061006849015163</v>
       </c>
       <c r="G3" s="20">
         <f>'TE Office'!G9</f>
-        <v>0.89947903213847469</v>
+        <v>0.90275531722103852</v>
       </c>
       <c r="H3" s="20">
         <f>'TE Office'!H9</f>
-        <v>0.92448668561480107</v>
+        <v>0.92456308122655606</v>
       </c>
       <c r="I3" s="20">
         <f>'TE Office'!I9</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="J3" s="20">
         <f>'TE Office'!J9</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="K3" s="20">
         <f>'TE Office'!K9</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="L3" s="20">
         <f>'TE Office'!L9</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="M3" s="20">
         <f>'TE Office'!M9</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
     </row>
     <row r="4" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11193,43 +11244,43 @@
       </c>
       <c r="D13" s="8">
         <f>'TE Office'!D7</f>
-        <v>257601884350.43256</v>
+        <v>259869334084.18256</v>
       </c>
       <c r="E13" s="8">
         <f>'TE Office'!E7</f>
-        <v>276123610963.60236</v>
+        <v>279770671830.10236</v>
       </c>
       <c r="F13" s="8">
         <f>'TE Office'!F7</f>
-        <v>276479683539.30579</v>
+        <v>278616122955.80579</v>
       </c>
       <c r="G13" s="8">
         <f>'TE Office'!G7</f>
-        <v>275719836739.30579</v>
+        <v>276680466155.80579</v>
       </c>
       <c r="H13" s="8">
         <f>'TE Office'!H7</f>
-        <v>285149141506.41614</v>
+        <v>284995854572.91614</v>
       </c>
       <c r="I13" s="8">
         <f>'TE Office'!I7</f>
-        <v>284722672448.04254</v>
+        <v>284567345064.54254</v>
       </c>
       <c r="J13" s="8">
         <f>'TE Office'!J7</f>
-        <v>284722672448.04254</v>
+        <v>284567345064.54254</v>
       </c>
       <c r="K13" s="8">
         <f>'TE Office'!K7</f>
-        <v>285916794947.69824</v>
+        <v>285755346214.19824</v>
       </c>
       <c r="L13" s="8">
         <f>'TE Office'!L7</f>
-        <v>286314835780.91675</v>
+        <v>286151346597.41675</v>
       </c>
       <c r="M13" s="8">
         <f>'TE Office'!M7</f>
-        <v>286314835780.91675</v>
+        <v>286151346597.41675</v>
       </c>
       <c r="N13" s="22"/>
     </row>
@@ -11282,43 +11333,43 @@
       </c>
       <c r="D15" s="8" cm="1">
         <f t="array" ref="D15">Table36[2023]</f>
-        <v>16399663023.428572</v>
+        <v>17699663023.4286</v>
       </c>
       <c r="E15" s="8" cm="1">
         <f t="array" ref="E15">Table36[2024]</f>
-        <v>19488442332.488911</v>
+        <v>24416595021.269829</v>
       </c>
       <c r="F15" s="8" cm="1">
         <f t="array" ref="F15">Table36[2025]</f>
-        <v>19541950158.087807</v>
+        <v>24057893174.967743</v>
       </c>
       <c r="G15" s="8" cm="1">
         <f t="array" ref="G15">Table36[2026]</f>
-        <v>19544136292.488808</v>
+        <v>23695153665.986694</v>
       </c>
       <c r="H15" s="8" cm="1">
         <f t="array" ref="H15">Table36[2027]</f>
-        <v>20872323705.240086</v>
+        <v>26059777935.39024</v>
       </c>
       <c r="I15" s="8" cm="1">
         <f t="array" ref="I15">Table36[2028]</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="J15" s="8" cm="1">
         <f t="array" ref="J15">Table36[2029]</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="K15" s="8" cm="1">
         <f t="array" ref="K15">Table36[2030]</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="L15" s="8" cm="1">
         <f t="array" ref="L15">Table36[2031]</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="M15" s="8" cm="1">
         <f t="array" ref="M15">Table36[2032]</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="N15" s="23"/>
     </row>
@@ -11386,39 +11437,39 @@
       </c>
       <c r="E17" s="8">
         <f>Table4[[#Totals],[2024]]</f>
-        <v>9491677710.0826931</v>
+        <v>9645669240.2241859</v>
       </c>
       <c r="F17" s="8">
         <f>Table4[[#Totals],[2025]]</f>
-        <v>9532610410.4248867</v>
+        <v>9511262168.7145729</v>
       </c>
       <c r="G17" s="8">
         <f>Table4[[#Totals],[2026]]</f>
-        <v>9534282771.1187172</v>
+        <v>9375342168.2306099</v>
       </c>
       <c r="H17" s="8">
         <f>Table4[[#Totals],[2027]]</f>
-        <v>10550326625.562725</v>
+        <v>10261376702.336218</v>
       </c>
       <c r="I17" s="8">
         <f>Table4[[#Totals],[2028]]</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="J17" s="8">
         <f>Table4[[#Totals],[2029]]</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="K17" s="8">
         <f>Table4[[#Totals],[2030]]</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="L17" s="8">
         <f>Table4[[#Totals],[2031]]</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="M17" s="8">
         <f>Table4[[#Totals],[2032]]</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="N17" s="23"/>
     </row>
@@ -11477,37 +11528,48 @@
         <v>6</v>
       </c>
       <c r="C19" s="8">
-        <v>3500000000</v>
+        <f>3500000000+1600000000</f>
+        <v>5100000000</v>
       </c>
       <c r="D19" s="8">
-        <v>3500000000</v>
+        <f t="shared" ref="D19:M19" si="0">3500000000+1600000000</f>
+        <v>5100000000</v>
       </c>
       <c r="E19" s="8">
-        <v>3500000000</v>
+        <f t="shared" si="0"/>
+        <v>5100000000</v>
       </c>
       <c r="F19" s="8">
-        <v>3500000000</v>
+        <f t="shared" si="0"/>
+        <v>5100000000</v>
       </c>
       <c r="G19" s="8">
-        <v>3500000000</v>
+        <f t="shared" si="0"/>
+        <v>5100000000</v>
       </c>
       <c r="H19" s="8">
-        <v>3500000000</v>
+        <f t="shared" si="0"/>
+        <v>5100000000</v>
       </c>
       <c r="I19" s="8">
-        <v>3500000000</v>
+        <f t="shared" si="0"/>
+        <v>5100000000</v>
       </c>
       <c r="J19" s="8">
-        <v>3500000000</v>
+        <f t="shared" si="0"/>
+        <v>5100000000</v>
       </c>
       <c r="K19" s="8">
-        <v>3500000000</v>
+        <f t="shared" si="0"/>
+        <v>5100000000</v>
       </c>
       <c r="L19" s="8">
-        <v>3500000000</v>
+        <f t="shared" si="0"/>
+        <v>5100000000</v>
       </c>
       <c r="M19" s="8">
-        <v>3500000000</v>
+        <f t="shared" si="0"/>
+        <v>5100000000</v>
       </c>
       <c r="N19" s="23"/>
     </row>
@@ -11656,90 +11718,90 @@
       </c>
       <c r="C23" s="9">
         <f>SUBTOTAL(109,Table2[2022])</f>
-        <v>318400736080.66931</v>
+        <v>320000736080.66931</v>
       </c>
       <c r="D23" s="9">
         <f>SUBTOTAL(109,Table2[2023])</f>
-        <v>333537651678.32971</v>
+        <v>338705101412.07971</v>
       </c>
       <c r="E23" s="9">
         <f>SUBTOTAL(109,Table2[2024])</f>
-        <v>359479028385.64252</v>
+        <v>369808233471.06494</v>
       </c>
       <c r="F23" s="9">
         <f>SUBTOTAL(109,Table2[2025])</f>
-        <v>362952311488.48706</v>
+        <v>371183345680.15674</v>
       </c>
       <c r="G23" s="9">
         <f>SUBTOTAL(109,Table2[2026])</f>
-        <v>365108783183.58191</v>
+        <v>371661489370.69165</v>
       </c>
       <c r="H23" s="9">
         <f>SUBTOTAL(109,Table2[2027])</f>
-        <v>378482319217.88757</v>
+        <v>384827536591.31122</v>
       </c>
       <c r="I23" s="9">
         <f>SUBTOTAL(109,Table2[2028])</f>
-        <v>379942340334.99603</v>
+        <v>386159518622.84161</v>
       </c>
       <c r="J23" s="9">
         <f>SUBTOTAL(109,Table2[2029])</f>
-        <v>381042340334.99603</v>
+        <v>387259518622.84161</v>
       </c>
       <c r="K23" s="9">
         <f>SUBTOTAL(109,Table2[2030])</f>
-        <v>383336462834.65173</v>
+        <v>389547519772.49731</v>
       </c>
       <c r="L23" s="9">
         <f>SUBTOTAL(109,Table2[2031])</f>
-        <v>384334503667.87024</v>
+        <v>390543520155.71582</v>
       </c>
       <c r="M23" s="9">
         <f>SUBTOTAL(109,Table2[2032])</f>
-        <v>384934503667.87024</v>
+        <v>391143520155.71582</v>
       </c>
       <c r="N23" s="24"/>
     </row>
     <row r="24" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="8">
         <f>Table2[[#Totals],[2023]]/14750</f>
-        <v>22612722.147683371</v>
+        <v>22963057.722852863</v>
       </c>
       <c r="E24" s="8">
         <f>Table2[[#Totals],[2024]]/14750</f>
-        <v>24371459.551568985</v>
+        <v>25071744.642106097</v>
       </c>
       <c r="F24" s="8">
         <f>Table2[[#Totals],[2025]]/14750</f>
-        <v>24606936.372100819</v>
+        <v>25164972.588485204</v>
       </c>
       <c r="G24" s="8">
         <f>Table2[[#Totals],[2026]]/14750</f>
-        <v>24753137.842954706</v>
+        <v>25197389.1098774</v>
       </c>
       <c r="H24" s="8">
         <f>Table2[[#Totals],[2027]]/14750</f>
-        <v>25659818.252060175</v>
+        <v>26090002.480766863</v>
       </c>
       <c r="I24" s="8">
         <f>Table2[[#Totals],[2028]]/14750</f>
-        <v>25758802.734576002</v>
+        <v>26180306.347311296</v>
       </c>
       <c r="J24" s="8">
         <f>Table2[[#Totals],[2029]]/14750</f>
-        <v>25833379.005762443</v>
+        <v>26254882.618497737</v>
       </c>
       <c r="K24" s="8">
         <f>Table2[[#Totals],[2030]]/14750</f>
-        <v>25988912.734552659</v>
+        <v>26410001.340508293</v>
       </c>
       <c r="L24" s="8">
         <f>Table2[[#Totals],[2031]]/14750</f>
-        <v>26056576.519855611</v>
+        <v>26477526.790218022</v>
       </c>
       <c r="M24" s="8">
         <f>Table2[[#Totals],[2032]]/14750</f>
-        <v>26097254.485957306</v>
+        <v>26518204.756319717</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11915,43 +11977,43 @@
       </c>
       <c r="D30" s="8" cm="1">
         <f t="array" ref="D30">Table36[2023]</f>
-        <v>16399663023.428572</v>
+        <v>17699663023.4286</v>
       </c>
       <c r="E30" s="8" cm="1">
         <f t="array" ref="E30">Table36[2024]</f>
-        <v>19488442332.488911</v>
+        <v>24416595021.269829</v>
       </c>
       <c r="F30" s="8" cm="1">
         <f t="array" ref="F30">Table36[2025]</f>
-        <v>19541950158.087807</v>
+        <v>24057893174.967743</v>
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">Table36[2026]</f>
-        <v>19544136292.488808</v>
+        <v>23695153665.986694</v>
       </c>
       <c r="H30" s="8" cm="1">
         <f t="array" ref="H30">Table36[2027]</f>
-        <v>20872323705.240086</v>
+        <v>26059777935.39024</v>
       </c>
       <c r="I30" s="8" cm="1">
         <f t="array" ref="I30">Table36[2028]</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="J30" s="8" cm="1">
         <f t="array" ref="J30">Table36[2029]</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="K30" s="8" cm="1">
         <f t="array" ref="K30">Table36[2030]</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="L30" s="8" cm="1">
         <f t="array" ref="L30">Table36[2031]</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="M30" s="8" cm="1">
         <f t="array" ref="M30">Table36[2032]</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="N30" s="23"/>
     </row>
@@ -12019,39 +12081,39 @@
       </c>
       <c r="E32" s="8">
         <f>Table4[[#Totals],[2024]]</f>
-        <v>9491677710.0826931</v>
+        <v>9645669240.2241859</v>
       </c>
       <c r="F32" s="8">
         <f>Table4[[#Totals],[2025]]</f>
-        <v>9532610410.4248867</v>
+        <v>9511262168.7145729</v>
       </c>
       <c r="G32" s="8">
         <f>Table4[[#Totals],[2026]]</f>
-        <v>9534282771.1187172</v>
+        <v>9375342168.2306099</v>
       </c>
       <c r="H32" s="8">
         <f>Table4[[#Totals],[2027]]</f>
-        <v>10550326625.562725</v>
+        <v>10261376702.336218</v>
       </c>
       <c r="I32" s="8">
         <f>Table4[[#Totals],[2028]]</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="J32" s="8">
         <f>Table4[[#Totals],[2029]]</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="K32" s="8">
         <f>Table4[[#Totals],[2030]]</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="L32" s="8">
         <f>Table4[[#Totals],[2031]]</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="M32" s="8">
         <f>Table4[[#Totals],[2032]]</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="N32" s="23"/>
     </row>
@@ -12293,86 +12355,86 @@
       </c>
       <c r="D38" s="9">
         <f>SUBTOTAL(109,Table211[2023])</f>
-        <v>323660894070.00977</v>
+        <v>324960894070.00977</v>
       </c>
       <c r="E38" s="9">
         <f>SUBTOTAL(109,Table211[2024])</f>
-        <v>347333144031.66998</v>
+        <v>352415288250.59235</v>
       </c>
       <c r="F38" s="9">
         <f>SUBTOTAL(109,Table211[2025])</f>
-        <v>349746289422.0296</v>
+        <v>354240884197.19928</v>
       </c>
       <c r="G38" s="9">
         <f>SUBTOTAL(109,Table211[2026])</f>
-        <v>350484359077.12445</v>
+        <v>354476435847.73425</v>
       </c>
       <c r="H38" s="9">
         <f>SUBTOTAL(109,Table211[2027])</f>
-        <v>349711461383.9754</v>
+        <v>354609965690.89905</v>
       </c>
       <c r="I38" s="9">
         <f>SUBTOTAL(109,Table211[2028])</f>
-        <v>351150099532.67609</v>
+        <v>355922605204.02161</v>
       </c>
       <c r="J38" s="9">
         <f>SUBTOTAL(109,Table211[2029])</f>
-        <v>352250099532.67609</v>
+        <v>357022605204.02161</v>
       </c>
       <c r="K38" s="9">
         <f>SUBTOTAL(109,Table211[2030])</f>
-        <v>354342806082.33173</v>
+        <v>359115311753.67725</v>
       </c>
       <c r="L38" s="9">
         <f>SUBTOTAL(109,Table211[2031])</f>
-        <v>355273708265.55023</v>
+        <v>360046213936.89581</v>
       </c>
       <c r="M38" s="9">
         <f>SUBTOTAL(109,Table211[2032])</f>
-        <v>355873708265.55023</v>
+        <v>360646213936.89581</v>
       </c>
       <c r="N38" s="24"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D39" s="8">
         <f>Table211[[#Totals],[2023]]/14750</f>
-        <v>21943111.462373544</v>
+        <v>22031247.055593882</v>
       </c>
       <c r="E39" s="8">
         <f>Table211[[#Totals],[2024]]/14750</f>
-        <v>23548009.764858983</v>
+        <v>23892561.915294398</v>
       </c>
       <c r="F39" s="8">
         <f>Table211[[#Totals],[2025]]/14750</f>
-        <v>23711612.842171498</v>
+        <v>24016331.132013511</v>
       </c>
       <c r="G39" s="8">
         <f>Table211[[#Totals],[2026]]/14750</f>
-        <v>23761651.462855894</v>
+        <v>24032300.73543961</v>
       </c>
       <c r="H39" s="8">
         <f>Table211[[#Totals],[2027]]/14750</f>
-        <v>23709251.61925257</v>
+        <v>24041353.606162649</v>
       </c>
       <c r="I39" s="8">
         <f>Table211[[#Totals],[2028]]/14750</f>
-        <v>23806786.408994988</v>
+        <v>24130346.115526889</v>
       </c>
       <c r="J39" s="8">
         <f>Table211[[#Totals],[2029]]/14750</f>
-        <v>23881362.680181429</v>
+        <v>24204922.38671333</v>
       </c>
       <c r="K39" s="8">
         <f>Table211[[#Totals],[2030]]/14750</f>
-        <v>24023241.090327576</v>
+        <v>24346800.796859473</v>
       </c>
       <c r="L39" s="8">
         <f>Table211[[#Totals],[2031]]/14750</f>
-        <v>24086353.102749169</v>
+        <v>24409912.809281074</v>
       </c>
       <c r="M39" s="8">
         <f>Table211[[#Totals],[2032]]/14750</f>
-        <v>24127031.068850864</v>
+        <v>24450590.775382768</v>
       </c>
     </row>
   </sheetData>
@@ -12535,47 +12597,47 @@
       </c>
       <c r="F2" s="43">
         <f>Summary!$C$3</f>
-        <v>0.80648025591983208</v>
+        <v>0.80651318506282987</v>
       </c>
       <c r="G2" s="43">
         <f>Summary!$D$3</f>
-        <v>0.84027360892539138</v>
+        <v>0.84746186247561472</v>
       </c>
       <c r="H2" s="62">
         <f>Summary!$E$3</f>
-        <v>0.89843040357971071</v>
+        <v>0.90940881520945416</v>
       </c>
       <c r="I2" s="63">
         <f>Summary!$F$3</f>
-        <v>0.89943787070972747</v>
+        <v>0.9061006849015163</v>
       </c>
       <c r="J2" s="63">
         <f>Summary!$G$3</f>
-        <v>0.89947903213847469</v>
+        <v>0.90275531722103852</v>
       </c>
       <c r="K2" s="63">
         <f>Summary!$H$3</f>
-        <v>0.92448668561480107</v>
+        <v>0.92456308122655606</v>
       </c>
       <c r="L2" s="63">
         <f>Summary!$I$3</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="M2" s="63">
         <f>Summary!$J$3</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="N2" s="63">
         <f>Summary!$K$3</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="O2" s="63">
         <f>Summary!$L$3</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="P2" s="63">
         <f>Summary!$M$3</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
     </row>
     <row r="3" spans="2:17" s="44" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -12719,39 +12781,39 @@
       </c>
       <c r="H8" s="81">
         <f>Table4[[#Totals],[2023]]+(H2-G2)*100*$I$11</f>
-        <v>9491677710.0826931</v>
+        <v>9645669240.2241859</v>
       </c>
       <c r="I8" s="82">
         <f>Table4[[#Totals],[2024]]+(I2-H2)*100*$I$11</f>
-        <v>9532610410.4248867</v>
+        <v>9511262168.7145729</v>
       </c>
       <c r="J8" s="82">
         <f>Table4[[#Totals],[2025]]+(J2-I2)*100*$I$11</f>
-        <v>9534282771.1187172</v>
+        <v>9375342168.2306099</v>
       </c>
       <c r="K8" s="82">
         <f>Table4[[#Totals],[2026]]+(K2-J2)*100*$I$11</f>
-        <v>10550326625.562725</v>
+        <v>10261376702.336218</v>
       </c>
       <c r="L8" s="82">
         <f>Table4[[#Totals],[2027]]+(L2-K2)*100*$I$11</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="M8" s="82">
         <f>Table4[[#Totals],[2028]]+(M2-L2)*100*$I$11</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="N8" s="82">
         <f>Table4[[#Totals],[2029]]+(N2-M2)*100*$I$11</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="O8" s="82">
         <f>Table4[[#Totals],[2030]]+(O2-N2)*100*$I$11</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="P8" s="82">
         <f>Table4[[#Totals],[2031]]+(P2-O2)*100*$I$11</f>
-        <v>10457786547.243435</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="Q8" s="79"/>
     </row>
@@ -12879,10 +12941,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:N18"/>
+  <dimension ref="B3:N79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12975,34 +13037,34 @@
         <v>205647908168.79742</v>
       </c>
       <c r="D5" s="33">
-        <v>212032230069.90952</v>
+        <v>213915213433.65952</v>
       </c>
       <c r="E5" s="33">
-        <v>226133977884.88779</v>
+        <v>229176264737.38779</v>
       </c>
       <c r="F5" s="33">
-        <v>226054942964.88779</v>
+        <v>227814840567.38779</v>
       </c>
       <c r="G5" s="33">
-        <v>225292846164.88779</v>
+        <v>226062051017.38779</v>
       </c>
       <c r="H5" s="33">
-        <v>232154544244.88779</v>
+        <v>231990869097.38779</v>
       </c>
       <c r="I5" s="33">
-        <v>231460133289.84375</v>
+        <v>231296458142.34375</v>
       </c>
       <c r="J5" s="33">
-        <v>231460133289.84375</v>
+        <v>231296458142.34375</v>
       </c>
       <c r="K5" s="33">
-        <v>231460133289.84375</v>
+        <v>231296458142.34375</v>
       </c>
       <c r="L5" s="33">
-        <v>231460133289.84375</v>
+        <v>231296458142.34375</v>
       </c>
       <c r="M5" s="33">
-        <v>231460133289.84375</v>
+        <v>231296458142.34375</v>
       </c>
       <c r="N5" s="38"/>
     </row>
@@ -13014,34 +13076,34 @@
         <v>43304072151.929543</v>
       </c>
       <c r="D6" s="33">
-        <v>45569654280.523056</v>
+        <v>45954120650.523056</v>
       </c>
       <c r="E6" s="33">
-        <v>49989633078.714592</v>
+        <v>50594407092.714592</v>
       </c>
       <c r="F6" s="33">
-        <v>50424740574.41803</v>
+        <v>50801282388.41803</v>
       </c>
       <c r="G6" s="33">
-        <v>50426990574.41803</v>
+        <v>50618415138.41803</v>
       </c>
       <c r="H6" s="33">
-        <v>52994597261.528358</v>
+        <v>53004985475.528358</v>
       </c>
       <c r="I6" s="33">
-        <v>53262539158.198814</v>
+        <v>53270886922.198814</v>
       </c>
       <c r="J6" s="33">
-        <v>53262539158.198814</v>
+        <v>53270886922.198814</v>
       </c>
       <c r="K6" s="33">
-        <v>54456661657.854462</v>
+        <v>54458888071.854462</v>
       </c>
       <c r="L6" s="33">
-        <v>54854702491.073013</v>
+        <v>54854888455.073013</v>
       </c>
       <c r="M6" s="33">
-        <v>54854702491.073013</v>
+        <v>54854888455.073013</v>
       </c>
       <c r="N6" s="39"/>
     </row>
@@ -13053,34 +13115,34 @@
         <v>248951980320.72696</v>
       </c>
       <c r="D7" s="35">
-        <v>257601884350.43256</v>
+        <v>259869334084.18256</v>
       </c>
       <c r="E7" s="35">
-        <v>276123610963.60236</v>
+        <v>279770671830.10236</v>
       </c>
       <c r="F7" s="35">
-        <v>276479683539.30579</v>
+        <v>278616122955.80579</v>
       </c>
       <c r="G7" s="35">
-        <v>275719836739.30579</v>
+        <v>276680466155.80579</v>
       </c>
       <c r="H7" s="35">
-        <v>285149141506.41614</v>
+        <v>284995854572.91614</v>
       </c>
       <c r="I7" s="35">
-        <v>284722672448.04254</v>
+        <v>284567345064.54254</v>
       </c>
       <c r="J7" s="35">
-        <v>284722672448.04254</v>
+        <v>284567345064.54254</v>
       </c>
       <c r="K7" s="35">
-        <v>285916794947.69824</v>
+        <v>285755346214.19824</v>
       </c>
       <c r="L7" s="35">
-        <v>286314835780.91675</v>
+        <v>286151346597.41675</v>
       </c>
       <c r="M7" s="35">
-        <v>286314835780.91675</v>
+        <v>286151346597.41675</v>
       </c>
       <c r="N7" s="40"/>
     </row>
@@ -13089,37 +13151,37 @@
         <v>67</v>
       </c>
       <c r="C8" s="32">
-        <v>48982.76617610659</v>
+        <v>48984.76617610659</v>
       </c>
       <c r="D8" s="33">
-        <v>51035.255243789958</v>
+        <v>51471.844410456622</v>
       </c>
       <c r="E8" s="33">
-        <v>54567.49382395867</v>
+        <v>55234.283823958656</v>
       </c>
       <c r="F8" s="33">
-        <v>54628.683823958658</v>
+        <v>55033.359657291992</v>
       </c>
       <c r="G8" s="33">
-        <v>54631.183823958658</v>
+        <v>54830.173823958663</v>
       </c>
       <c r="H8" s="33">
-        <v>56150.060490625328</v>
+        <v>56154.700490625335</v>
       </c>
       <c r="I8" s="33">
-        <v>56011.72299163264</v>
+        <v>56016.362991632639</v>
       </c>
       <c r="J8" s="33">
-        <v>56011.72299163264</v>
+        <v>56016.362991632639</v>
       </c>
       <c r="K8" s="33">
-        <v>56011.72299163264</v>
+        <v>56016.362991632639</v>
       </c>
       <c r="L8" s="33">
-        <v>56011.72299163264</v>
+        <v>56016.362991632639</v>
       </c>
       <c r="M8" s="33">
-        <v>56011.72299163264</v>
+        <v>56016.362991632639</v>
       </c>
       <c r="N8" s="39"/>
     </row>
@@ -13128,37 +13190,37 @@
         <v>68</v>
       </c>
       <c r="C9" s="36">
-        <v>0.80648025591983208</v>
+        <v>0.80651318506282987</v>
       </c>
       <c r="D9" s="37">
-        <v>0.84027360892539138</v>
+        <v>0.84746186247561472</v>
       </c>
       <c r="E9" s="37">
-        <v>0.89843040357971071</v>
+        <v>0.90940881520945416</v>
       </c>
       <c r="F9" s="37">
-        <v>0.89943787070972747</v>
+        <v>0.9061006849015163</v>
       </c>
       <c r="G9" s="37">
-        <v>0.89947903213847469</v>
+        <v>0.90275531722103852</v>
       </c>
       <c r="H9" s="37">
-        <v>0.92448668561480107</v>
+        <v>0.92456308122655606</v>
       </c>
       <c r="I9" s="37">
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="J9" s="37">
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="K9" s="37">
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="L9" s="37">
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="M9" s="37">
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="N9" s="41"/>
     </row>
@@ -13175,7 +13237,9 @@
       <c r="L10" s="99"/>
       <c r="M10" s="99"/>
     </row>
-    <row r="11" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="100"/>
+    </row>
     <row r="12" spans="2:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="29"/>
       <c r="C12" s="6">
@@ -13444,6 +13508,9 @@
         <v>0.84175505398805606</v>
       </c>
       <c r="N18" s="41"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="56"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -13531,17 +13598,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:N41"/>
+  <dimension ref="B3:N55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView showGridLines="0" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="10.83203125" style="29"/>
-    <col min="3" max="13" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="1" customWidth="1"/>
+    <col min="5" max="13" width="17.83203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -14331,279 +14400,557 @@
       <c r="N33" s="41"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C36" s="112">
+      <c r="C36" s="100">
         <f>C20-C29</f>
         <v>0</v>
       </c>
-      <c r="D36" s="112">
+      <c r="D36" s="100">
         <f t="shared" ref="D36:M36" si="0">D20-D29</f>
         <v>0</v>
       </c>
-      <c r="E36" s="112">
+      <c r="E36" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="112">
+      <c r="F36" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="112">
+      <c r="G36" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="112">
+      <c r="H36" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="112">
+      <c r="I36" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="112">
+      <c r="J36" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K36" s="112">
+      <c r="K36" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="112">
+      <c r="L36" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="112">
+      <c r="M36" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C37" s="112">
+      <c r="C37" s="100">
         <f t="shared" ref="C37:M41" si="1">C21-C30</f>
         <v>0</v>
       </c>
-      <c r="D37" s="112">
+      <c r="D37" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E37" s="112">
+      <c r="E37" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="112">
+      <c r="F37" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G37" s="112">
+      <c r="G37" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="112">
+      <c r="H37" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="112">
+      <c r="I37" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="112">
+      <c r="J37" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K37" s="112">
+      <c r="K37" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L37" s="112">
+      <c r="L37" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="112">
+      <c r="M37" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C38" s="112">
+      <c r="C38" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="112">
+      <c r="D38" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E38" s="112">
+      <c r="E38" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112">
+      <c r="F38" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G38" s="112">
+      <c r="G38" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H38" s="112">
+      <c r="H38" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38" s="112">
+      <c r="I38" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J38" s="112">
+      <c r="J38" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K38" s="112">
+      <c r="K38" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L38" s="112">
+      <c r="L38" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M38" s="112">
+      <c r="M38" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C39" s="112">
+      <c r="C39" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="112">
+      <c r="D39" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E39" s="112">
+      <c r="E39" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112">
+      <c r="F39" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G39" s="112">
+      <c r="G39" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H39" s="112">
+      <c r="H39" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39" s="112">
+      <c r="I39" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="112">
+      <c r="J39" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K39" s="112">
+      <c r="K39" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L39" s="112">
+      <c r="L39" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M39" s="112">
+      <c r="M39" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C40" s="112">
+      <c r="C40" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="112">
+      <c r="D40" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E40" s="112">
+      <c r="E40" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112">
+      <c r="F40" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40" s="112">
+      <c r="G40" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="112">
+      <c r="H40" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I40" s="112">
+      <c r="I40" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J40" s="112">
+      <c r="J40" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K40" s="112">
+      <c r="K40" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L40" s="112">
+      <c r="L40" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M40" s="112">
+      <c r="M40" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C41" s="112">
+      <c r="C41" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="112">
+      <c r="D41" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E41" s="112">
+      <c r="E41" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112">
+      <c r="F41" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G41" s="112">
+      <c r="G41" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H41" s="112">
+      <c r="H41" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="112">
+      <c r="I41" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J41" s="112">
+      <c r="J41" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K41" s="112">
+      <c r="K41" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L41" s="112">
+      <c r="L41" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M41" s="112">
+      <c r="M41" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="29"/>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>3</v>
+      </c>
+      <c r="G45" s="6">
+        <v>4</v>
+      </c>
+      <c r="H45" s="6">
+        <v>5</v>
+      </c>
+      <c r="I45" s="6">
+        <v>6</v>
+      </c>
+      <c r="J45" s="6">
+        <v>7</v>
+      </c>
+      <c r="K45" s="6">
+        <v>8</v>
+      </c>
+      <c r="L45" s="6">
+        <v>9</v>
+      </c>
+      <c r="M45" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="31">
+        <v>44926</v>
+      </c>
+      <c r="D46" s="31">
+        <v>45291</v>
+      </c>
+      <c r="E46" s="31">
+        <v>45657</v>
+      </c>
+      <c r="F46" s="31">
+        <v>46022</v>
+      </c>
+      <c r="G46" s="31">
+        <v>46387</v>
+      </c>
+      <c r="H46" s="31">
+        <v>46752</v>
+      </c>
+      <c r="I46" s="31">
+        <v>47118</v>
+      </c>
+      <c r="J46" s="31">
+        <v>47483</v>
+      </c>
+      <c r="K46" s="31">
+        <v>47848</v>
+      </c>
+      <c r="L46" s="31">
+        <v>48213</v>
+      </c>
+      <c r="M46" s="31">
+        <v>48579</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="32">
+        <v>205647908168.79742</v>
+      </c>
+      <c r="D47" s="33">
+        <v>212187707929.90952</v>
+      </c>
+      <c r="E47" s="33">
+        <v>226103861604.88779</v>
+      </c>
+      <c r="F47" s="33">
+        <v>225403253434.88779</v>
+      </c>
+      <c r="G47" s="33">
+        <v>224583343884.88779</v>
+      </c>
+      <c r="H47" s="33">
+        <v>231445041964.88779</v>
+      </c>
+      <c r="I47" s="33">
+        <v>230750631009.84375</v>
+      </c>
+      <c r="J47" s="33">
+        <v>230750631009.84375</v>
+      </c>
+      <c r="K47" s="33">
+        <v>230750631009.84375</v>
+      </c>
+      <c r="L47" s="33">
+        <v>230750631009.84375</v>
+      </c>
+      <c r="M47" s="33">
+        <v>230750631009.84375</v>
+      </c>
+      <c r="N47" s="38"/>
+    </row>
+    <row r="48" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="32">
+        <v>43304072151.929543</v>
+      </c>
+      <c r="D48" s="33">
+        <v>45617264780.523056</v>
+      </c>
+      <c r="E48" s="33">
+        <v>49989633078.714592</v>
+      </c>
+      <c r="F48" s="33">
+        <v>50312515824.41803</v>
+      </c>
+      <c r="G48" s="33">
+        <v>50304563574.41803</v>
+      </c>
+      <c r="H48" s="33">
+        <v>52866048911.528358</v>
+      </c>
+      <c r="I48" s="33">
+        <v>53131950358.198814</v>
+      </c>
+      <c r="J48" s="33">
+        <v>53131950358.198814</v>
+      </c>
+      <c r="K48" s="33">
+        <v>54319951507.854462</v>
+      </c>
+      <c r="L48" s="33">
+        <v>54715951891.073013</v>
+      </c>
+      <c r="M48" s="33">
+        <v>54715951891.073013</v>
+      </c>
+      <c r="N48" s="39"/>
+    </row>
+    <row r="49" spans="2:14" s="30" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="34">
+        <v>248951980320.72696</v>
+      </c>
+      <c r="D49" s="35">
+        <v>257804972710.43256</v>
+      </c>
+      <c r="E49" s="35">
+        <v>276093494683.60236</v>
+      </c>
+      <c r="F49" s="35">
+        <v>275715769259.30579</v>
+      </c>
+      <c r="G49" s="35">
+        <v>274887907459.30579</v>
+      </c>
+      <c r="H49" s="35">
+        <v>284311090876.41614</v>
+      </c>
+      <c r="I49" s="35">
+        <v>283882581368.04254</v>
+      </c>
+      <c r="J49" s="35">
+        <v>283882581368.04254</v>
+      </c>
+      <c r="K49" s="35">
+        <v>285070582517.69824</v>
+      </c>
+      <c r="L49" s="35">
+        <v>285466582900.91675</v>
+      </c>
+      <c r="M49" s="35">
+        <v>285466582900.91675</v>
+      </c>
+      <c r="N49" s="40"/>
+    </row>
+    <row r="50" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="32">
+        <v>48982.76617610659</v>
+      </c>
+      <c r="D50" s="33">
+        <v>51091.934410456619</v>
+      </c>
+      <c r="E50" s="33">
+        <v>54567.49382395867</v>
+      </c>
+      <c r="F50" s="33">
+        <v>54503.989657291997</v>
+      </c>
+      <c r="G50" s="33">
+        <v>54495.153823958673</v>
+      </c>
+      <c r="H50" s="33">
+        <v>56014.03049062533</v>
+      </c>
+      <c r="I50" s="33">
+        <v>55875.692991632641</v>
+      </c>
+      <c r="J50" s="33">
+        <v>55875.692991632641</v>
+      </c>
+      <c r="K50" s="33">
+        <v>55875.692991632641</v>
+      </c>
+      <c r="L50" s="33">
+        <v>55875.692991632641</v>
+      </c>
+      <c r="M50" s="33">
+        <v>55875.692991632641</v>
+      </c>
+      <c r="N50" s="39"/>
+    </row>
+    <row r="51" spans="2:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="36">
+        <v>0.80648025591983208</v>
+      </c>
+      <c r="D51" s="37">
+        <v>0.84120680711747198</v>
+      </c>
+      <c r="E51" s="37">
+        <v>0.89843040357971071</v>
+      </c>
+      <c r="F51" s="37">
+        <v>0.89738483468714991</v>
+      </c>
+      <c r="G51" s="37">
+        <v>0.8972393564774811</v>
+      </c>
+      <c r="H51" s="37">
+        <v>0.92224700995380737</v>
+      </c>
+      <c r="I51" s="37">
+        <v>0.91996934231066485</v>
+      </c>
+      <c r="J51" s="37">
+        <v>0.91996934231066485</v>
+      </c>
+      <c r="K51" s="37">
+        <v>0.91996934231066485</v>
+      </c>
+      <c r="L51" s="37">
+        <v>0.91996934231066485</v>
+      </c>
+      <c r="M51" s="37">
+        <v>0.91996934231066485</v>
+      </c>
+      <c r="N51" s="41"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D55" s="8">
+        <f>257601884350</f>
+        <v>257601884350</v>
+      </c>
+      <c r="E55" s="8">
+        <v>276123610964</v>
       </c>
     </row>
   </sheetData>
@@ -14617,6 +14964,38 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{27CA99C9-4EC6-5540-A65D-D31078C783F3}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C47:M47</xm:f>
+              <xm:sqref>N47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C48:M48</xm:f>
+              <xm:sqref>N48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C49:M49</xm:f>
+              <xm:sqref>N49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C50:M50</xm:f>
+              <xm:sqref>N50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C51:M51</xm:f>
+              <xm:sqref>N51</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{8EB3746F-C49E-704D-A70B-BBE68538AD93}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -15789,7 +16168,7 @@
   <dimension ref="B2:Q34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16160,7 +16539,7 @@
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="C5:G5 E4" calculatedColumn="1"/>
+    <ignoredError sqref="C4:P5 C9:P10" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <tableParts count="2">
@@ -16215,7 +16594,7 @@
   </sheetPr>
   <dimension ref="B2:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -16485,8 +16864,8 @@
   </sheetPr>
   <dimension ref="B2:AL40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView showGridLines="0" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16508,47 +16887,47 @@
       </c>
       <c r="F2" s="43">
         <f>Summary!$C$3</f>
-        <v>0.80648025591983208</v>
+        <v>0.80651318506282987</v>
       </c>
       <c r="G2" s="62">
         <f>Summary!$D$3</f>
-        <v>0.84027360892539138</v>
+        <v>0.84746186247561472</v>
       </c>
       <c r="H2" s="63">
         <f>Summary!$E$3</f>
-        <v>0.89843040357971071</v>
+        <v>0.90940881520945416</v>
       </c>
       <c r="I2" s="63">
         <f>Summary!$F$3</f>
-        <v>0.89943787070972747</v>
+        <v>0.9061006849015163</v>
       </c>
       <c r="J2" s="63">
         <f>Summary!$G$3</f>
-        <v>0.89947903213847469</v>
+        <v>0.90275531722103852</v>
       </c>
       <c r="K2" s="63">
         <f>Summary!$H$3</f>
-        <v>0.92448668561480107</v>
+        <v>0.92456308122655606</v>
       </c>
       <c r="L2" s="63">
         <f>Summary!$I$3</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="M2" s="63">
         <f>Summary!$J$3</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="N2" s="63">
         <f>Summary!$K$3</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="O2" s="63">
         <f>Summary!$L$3</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="P2" s="63">
         <f>Summary!$M$3</f>
-        <v>0.92220901797165855</v>
+        <v>0.92228541358341343</v>
       </c>
     </row>
     <row r="3" spans="2:38" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -16598,22 +16977,22 @@
         <v>18</v>
       </c>
       <c r="W3" s="45"/>
-      <c r="X3" s="106" t="s">
+      <c r="X3" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="107"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="108"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="108"/>
       <c r="AL3" s="45"/>
     </row>
     <row r="4" spans="2:38" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -16633,60 +17012,61 @@
         <v>15151548951.902332</v>
       </c>
       <c r="G4" s="66">
-        <v>16399663023.428572</v>
+        <f>16399663023.4286+1300000000</f>
+        <v>17699663023.4286</v>
       </c>
       <c r="H4" s="67">
         <f>Table36[[#This Row],[2023]]+(H2-G2)*100*$H$9</f>
-        <v>19488442332.488911</v>
+        <v>24416595021.269829</v>
       </c>
       <c r="I4" s="67">
         <f>Table36[[#This Row],[2024]]+(I2-H2)*100*$H$9</f>
-        <v>19541950158.087807</v>
+        <v>24057893174.967743</v>
       </c>
       <c r="J4" s="67">
         <f>Table36[[#This Row],[2025]]+(J2-I2)*100*$H$9</f>
-        <v>19544136292.488808</v>
+        <v>23695153665.986694</v>
       </c>
       <c r="K4" s="67">
         <f>Table36[[#This Row],[2026]]+(K2-J2)*100*$H$9</f>
-        <v>20872323705.240086</v>
+        <v>26059777935.39024</v>
       </c>
       <c r="L4" s="67">
         <f>Table36[[#This Row],[2027]]+(L2-K2)*100*$H$9</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="M4" s="67">
         <f>Table36[[#This Row],[2028]]+(M2-L2)*100*$H$9</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="N4" s="67">
         <f>Table36[[#This Row],[2029]]+(N2-M2)*100*$H$9</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="O4" s="67">
         <f>Table36[[#This Row],[2030]]+(O2-N2)*100*$H$9</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="P4" s="67">
         <f>Table36[[#This Row],[2031]]+(P2-O2)*100*$H$9</f>
-        <v>20751353959.041523</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="Q4" s="79"/>
       <c r="W4" s="45"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="109"/>
-      <c r="AF4" s="109"/>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109"/>
-      <c r="AJ4" s="109"/>
-      <c r="AK4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
       <c r="AL4" s="45"/>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.2">
@@ -16701,7 +17081,7 @@
       <c r="O5" s="69"/>
       <c r="P5" s="69"/>
       <c r="W5" s="45"/>
-      <c r="X5" s="110" t="s">
+      <c r="X5" s="111" t="s">
         <v>23</v>
       </c>
       <c r="Y5" s="12" t="s">
@@ -16761,7 +17141,7 @@
       <c r="O6" s="69"/>
       <c r="P6" s="69"/>
       <c r="W6" s="45"/>
-      <c r="X6" s="111"/>
+      <c r="X6" s="112"/>
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
@@ -16898,11 +17278,11 @@
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
       <c r="G9" s="75" cm="1">
         <f t="array" ref="G9">Table36[2023]-Table36[2022]</f>
-        <v>1248114071.5262394</v>
+        <v>2548114071.526268</v>
       </c>
       <c r="H9" s="76">
         <f>G9/(G8*100)</f>
-        <v>531112370.86222953</v>
+        <v>1084303860.2239437</v>
       </c>
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
@@ -17052,22 +17432,22 @@
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.2">
       <c r="W13" s="45"/>
-      <c r="X13" s="106" t="s">
+      <c r="X13" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="107"/>
-      <c r="AJ13" s="107"/>
-      <c r="AK13" s="107"/>
+      <c r="Y13" s="108"/>
+      <c r="Z13" s="108"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="108"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
+      <c r="AG13" s="108"/>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="108"/>
+      <c r="AJ13" s="108"/>
+      <c r="AK13" s="108"/>
       <c r="AL13" s="45"/>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.2">
@@ -17078,25 +17458,25 @@
         <v>74</v>
       </c>
       <c r="W14" s="45"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="109"/>
-      <c r="Z14" s="109"/>
-      <c r="AA14" s="109"/>
-      <c r="AB14" s="109"/>
-      <c r="AC14" s="109"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="109"/>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="109"/>
-      <c r="AH14" s="109"/>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="109"/>
-      <c r="AK14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="110"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="110"/>
+      <c r="AG14" s="110"/>
+      <c r="AH14" s="110"/>
+      <c r="AI14" s="110"/>
+      <c r="AJ14" s="110"/>
+      <c r="AK14" s="110"/>
       <c r="AL14" s="45"/>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.2">
       <c r="W15" s="45"/>
-      <c r="X15" s="110" t="s">
+      <c r="X15" s="111" t="s">
         <v>23</v>
       </c>
       <c r="Y15" s="12" t="s">
@@ -17142,7 +17522,7 @@
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.2">
       <c r="W16" s="45"/>
-      <c r="X16" s="111"/>
+      <c r="X16" s="112"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
@@ -17347,43 +17727,43 @@
     </row>
     <row r="22" spans="23:38" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="23:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X23" s="102" t="s">
+      <c r="X23" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="Y23" s="103"/>
-      <c r="Z23" s="103"/>
-      <c r="AA23" s="103"/>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="103"/>
-      <c r="AE23" s="103"/>
-      <c r="AF23" s="103"/>
-      <c r="AG23" s="103"/>
-      <c r="AH23" s="103"/>
-      <c r="AI23" s="103"/>
-      <c r="AJ23" s="103"/>
-      <c r="AK23" s="103"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="104"/>
+      <c r="AF23" s="104"/>
+      <c r="AG23" s="104"/>
+      <c r="AH23" s="104"/>
+      <c r="AI23" s="104"/>
+      <c r="AJ23" s="104"/>
+      <c r="AK23" s="104"/>
       <c r="AL23" s="56"/>
     </row>
     <row r="24" spans="23:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X24" s="104"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="105"/>
-      <c r="AB24" s="105"/>
-      <c r="AC24" s="105"/>
-      <c r="AD24" s="105"/>
-      <c r="AE24" s="105"/>
-      <c r="AF24" s="105"/>
-      <c r="AG24" s="105"/>
-      <c r="AH24" s="105"/>
-      <c r="AI24" s="105"/>
-      <c r="AJ24" s="105"/>
-      <c r="AK24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="106"/>
+      <c r="AJ24" s="106"/>
+      <c r="AK24" s="106"/>
       <c r="AL24" s="56"/>
     </row>
     <row r="25" spans="23:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X25" s="100" t="s">
+      <c r="X25" s="101" t="s">
         <v>23</v>
       </c>
       <c r="Y25" s="18" t="s">
@@ -17428,7 +17808,7 @@
       <c r="AL25" s="56"/>
     </row>
     <row r="26" spans="23:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X26" s="101"/>
+      <c r="X26" s="102"/>
       <c r="Y26" s="17" t="s">
         <v>36</v>
       </c>
@@ -17685,43 +18065,43 @@
       <c r="AL32" s="56"/>
     </row>
     <row r="33" spans="24:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X33" s="102" t="s">
+      <c r="X33" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="103"/>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="103"/>
-      <c r="AF33" s="103"/>
-      <c r="AG33" s="103"/>
-      <c r="AH33" s="103"/>
-      <c r="AI33" s="103"/>
-      <c r="AJ33" s="103"/>
-      <c r="AK33" s="103"/>
+      <c r="Y33" s="104"/>
+      <c r="Z33" s="104"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="104"/>
+      <c r="AE33" s="104"/>
+      <c r="AF33" s="104"/>
+      <c r="AG33" s="104"/>
+      <c r="AH33" s="104"/>
+      <c r="AI33" s="104"/>
+      <c r="AJ33" s="104"/>
+      <c r="AK33" s="104"/>
       <c r="AL33" s="56"/>
     </row>
     <row r="34" spans="24:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X34" s="104"/>
-      <c r="Y34" s="105"/>
-      <c r="Z34" s="105"/>
-      <c r="AA34" s="105"/>
-      <c r="AB34" s="105"/>
-      <c r="AC34" s="105"/>
-      <c r="AD34" s="105"/>
-      <c r="AE34" s="105"/>
-      <c r="AF34" s="105"/>
-      <c r="AG34" s="105"/>
-      <c r="AH34" s="105"/>
-      <c r="AI34" s="105"/>
-      <c r="AJ34" s="105"/>
-      <c r="AK34" s="105"/>
+      <c r="X34" s="105"/>
+      <c r="Y34" s="106"/>
+      <c r="Z34" s="106"/>
+      <c r="AA34" s="106"/>
+      <c r="AB34" s="106"/>
+      <c r="AC34" s="106"/>
+      <c r="AD34" s="106"/>
+      <c r="AE34" s="106"/>
+      <c r="AF34" s="106"/>
+      <c r="AG34" s="106"/>
+      <c r="AH34" s="106"/>
+      <c r="AI34" s="106"/>
+      <c r="AJ34" s="106"/>
+      <c r="AK34" s="106"/>
       <c r="AL34" s="56"/>
     </row>
     <row r="35" spans="24:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X35" s="100" t="s">
+      <c r="X35" s="101" t="s">
         <v>23</v>
       </c>
       <c r="Y35" s="18" t="s">
@@ -17766,7 +18146,7 @@
       <c r="AL35" s="56"/>
     </row>
     <row r="36" spans="24:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X36" s="101"/>
+      <c r="X36" s="102"/>
       <c r="Y36" s="17" t="s">
         <v>36</v>
       </c>
@@ -18039,7 +18419,7 @@
   <dimension ref="B2:Q15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="173" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/revenue-streamlit/revenue 2023 2032 simulation yearly.xlsx
+++ b/revenue-streamlit/revenue 2023 2032 simulation yearly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db03e8e420626a2/Office/AMG/Development/office/revenue-streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mawan/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{63EB4802-57AD-0F44-B5C6-2C4816D8263D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{733B6F82-EE60-5E4C-BB7D-4D6338FF3F04}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA92C2C-EB2D-7847-8EC0-F6534D169652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18860" yWindow="-27040" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{9DA9C85C-0230-484A-A9A5-3ABA148F8E1D}"/>
+    <workbookView xWindow="9440" yWindow="16680" windowWidth="36000" windowHeight="21500" activeTab="1" xr2:uid="{9DA9C85C-0230-484A-A9A5-3ABA148F8E1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -12453,6 +12453,62 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{41AC8C04-055F-BC46-990B-A8AFCC66F91D}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!C13:M13</xm:f>
+              <xm:sqref>N13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C14:M14</xm:f>
+              <xm:sqref>N14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C15:M15</xm:f>
+              <xm:sqref>N15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C16:M16</xm:f>
+              <xm:sqref>N16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C17:M17</xm:f>
+              <xm:sqref>N17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C18:M18</xm:f>
+              <xm:sqref>N18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C19:M19</xm:f>
+              <xm:sqref>N19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C20:M20</xm:f>
+              <xm:sqref>N20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C21:M21</xm:f>
+              <xm:sqref>N21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C22:M22</xm:f>
+              <xm:sqref>N22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C23:M23</xm:f>
+              <xm:sqref>N23</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DDB91947-C232-1C4C-819B-643D68F76A89}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -12506,62 +12562,6 @@
             <x14:sparkline>
               <xm:f>Summary!C38:M38</xm:f>
               <xm:sqref>N38</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{41AC8C04-055F-BC46-990B-A8AFCC66F91D}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!C13:M13</xm:f>
-              <xm:sqref>N13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C14:M14</xm:f>
-              <xm:sqref>N14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C15:M15</xm:f>
-              <xm:sqref>N15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C16:M16</xm:f>
-              <xm:sqref>N16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C17:M17</xm:f>
-              <xm:sqref>N17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C18:M18</xm:f>
-              <xm:sqref>N18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C19:M19</xm:f>
-              <xm:sqref>N19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C20:M20</xm:f>
-              <xm:sqref>N20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C21:M21</xm:f>
-              <xm:sqref>N21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C22:M22</xm:f>
-              <xm:sqref>N22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C23:M23</xm:f>
-              <xm:sqref>N23</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -13523,6 +13523,38 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{F5ADDBC2-ACC9-B94C-98B6-A764A5F6C6AF}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office'!C9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FAB1A9B4-5C50-4E42-8C73-D8DA4DBABC2E}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -13552,38 +13584,6 @@
             <x14:sparkline>
               <xm:f>'TE Office'!C18:M18</xm:f>
               <xm:sqref>N18</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{F5ADDBC2-ACC9-B94C-98B6-A764A5F6C6AF}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -14964,7 +14964,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{27CA99C9-4EC6-5540-A65D-D31078C783F3}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C71BF03F-71C7-CA48-A8E0-2F94EBAEAF89}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14975,24 +14975,56 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C47:M47</xm:f>
-              <xm:sqref>N47</xm:sqref>
+              <xm:f>'TE Office Old'!C5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C48:M48</xm:f>
-              <xm:sqref>N48</xm:sqref>
+              <xm:f>'TE Office Old'!C6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C49:M49</xm:f>
-              <xm:sqref>N49</xm:sqref>
+              <xm:f>'TE Office Old'!C7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C50:M50</xm:f>
-              <xm:sqref>N50</xm:sqref>
+              <xm:f>'TE Office Old'!C8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C51:M51</xm:f>
-              <xm:sqref>N51</xm:sqref>
+              <xm:f>'TE Office Old'!C9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D6EB2B09-F17B-3C44-89C9-D9FDDB189892}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C20:M20</xm:f>
+              <xm:sqref>N20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C21:M21</xm:f>
+              <xm:sqref>N21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C22:M22</xm:f>
+              <xm:sqref>N22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C23:M23</xm:f>
+              <xm:sqref>N23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C24:M24</xm:f>
+              <xm:sqref>N24</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -15028,7 +15060,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D6EB2B09-F17B-3C44-89C9-D9FDDB189892}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{27CA99C9-4EC6-5540-A65D-D31078C783F3}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -15039,56 +15071,24 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C20:M20</xm:f>
-              <xm:sqref>N20</xm:sqref>
+              <xm:f>'TE Office Old'!C47:M47</xm:f>
+              <xm:sqref>N47</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C21:M21</xm:f>
-              <xm:sqref>N21</xm:sqref>
+              <xm:f>'TE Office Old'!C48:M48</xm:f>
+              <xm:sqref>N48</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C22:M22</xm:f>
-              <xm:sqref>N22</xm:sqref>
+              <xm:f>'TE Office Old'!C49:M49</xm:f>
+              <xm:sqref>N49</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C23:M23</xm:f>
-              <xm:sqref>N23</xm:sqref>
+              <xm:f>'TE Office Old'!C50:M50</xm:f>
+              <xm:sqref>N50</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C24:M24</xm:f>
-              <xm:sqref>N24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C71BF03F-71C7-CA48-A8E0-2F94EBAEAF89}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>'TE Office Old'!C51:M51</xm:f>
+              <xm:sqref>N51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -16549,6 +16549,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{990FA0E3-C61F-6E4B-84B3-0E05946D3E2D}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>SH!C9:P9</xm:f>
+              <xm:sqref>Q9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FF5E32F6-76BA-B445-AB9C-94E4D0BCC643}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -16562,22 +16578,6 @@
             <x14:sparkline>
               <xm:f>SH!C4:P4</xm:f>
               <xm:sqref>Q4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{990FA0E3-C61F-6E4B-84B3-0E05946D3E2D}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>SH!C9:P9</xm:f>
-              <xm:sqref>Q9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/revenue-streamlit/revenue 2023 2032 simulation yearly.xlsx
+++ b/revenue-streamlit/revenue 2023 2032 simulation yearly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mawan/Development/office/revenue-streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db03e8e420626a2/Office/AMG/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA92C2C-EB2D-7847-8EC0-F6534D169652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="8_{63EB4802-57AD-0F44-B5C6-2C4816D8263D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B364056-EBCD-D24A-9ADF-EBEC2FBC4BDA}"/>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="16680" windowWidth="36000" windowHeight="21500" activeTab="1" xr2:uid="{9DA9C85C-0230-484A-A9A5-3ABA148F8E1D}"/>
+    <workbookView xWindow="5140" yWindow="880" windowWidth="26400" windowHeight="21500" activeTab="1" xr2:uid="{9DA9C85C-0230-484A-A9A5-3ABA148F8E1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -990,6 +990,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -997,7 +1077,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1281,6 +1361,54 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5721,37 +5849,37 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>320000736080.66931</c:v>
+                  <c:v>161976157819.08929</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>338705101412.07971</c:v>
+                  <c:v>156931277231.19324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>369808233471.06494</c:v>
+                  <c:v>164834078247.94229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>371183345680.15674</c:v>
+                  <c:v>166040948057.03406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>371661489370.69165</c:v>
+                  <c:v>166519091747.56903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>384827536591.31122</c:v>
+                  <c:v>177744253021.12604</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>386159518622.84161</c:v>
+                  <c:v>178189913279.12527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>387259518622.84161</c:v>
+                  <c:v>179289913279.12527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>389547519772.49731</c:v>
+                  <c:v>181060797378.78094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>390543520155.71582</c:v>
+                  <c:v>181884425411.99948</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>391143520155.71582</c:v>
+                  <c:v>182484425411.99948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5797,31 +5925,31 @@
                   <c:v>324960894070.00977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>352415288250.59235</c:v>
+                  <c:v>345144987777.34271</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>354240884197.19928</c:v>
+                  <c:v>346970583723.94958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>354476435847.73425</c:v>
+                  <c:v>347206135374.48456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>354609965690.89905</c:v>
+                  <c:v>346889187870.58691</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>355922605204.02161</c:v>
+                  <c:v>347976588710.17834</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>357022605204.02161</c:v>
+                  <c:v>349076588710.17834</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>359115311753.67725</c:v>
+                  <c:v>351169295259.83398</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>360046213936.89581</c:v>
+                  <c:v>352100197443.05249</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>360646213936.89581</c:v>
+                  <c:v>352700197443.05249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6263,37 +6391,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.80651318506282987</c:v>
+                  <c:v>0.25761153783286894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84746186247561472</c:v>
+                  <c:v>0.22383145659188156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90940881520945416</c:v>
+                  <c:v>0.23700398956850918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9061006849015163</c:v>
+                  <c:v>0.23369585926057126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90275531722103852</c:v>
+                  <c:v>0.23035049158009344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92456308122655606</c:v>
+                  <c:v>0.24913612860508491</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92228541358341343</c:v>
+                  <c:v>0.24534739747167941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92228541358341343</c:v>
+                  <c:v>0.24534739747167941</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92228541358341343</c:v>
+                  <c:v>0.24534739747167941</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92228541358341343</c:v>
+                  <c:v>0.24534739747167941</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92228541358341343</c:v>
+                  <c:v>0.24534739747167941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6798,37 +6926,37 @@
                 <c:formatCode>0,00#</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>248951980320.72696</c:v>
+                  <c:v>90927402059.146957</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>259869334084.18256</c:v>
+                  <c:v>78095509903.296066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>279770671830.10236</c:v>
+                  <c:v>82066817080.229385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278616122955.80579</c:v>
+                  <c:v>80744025805.932816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>276680466155.80579</c:v>
+                  <c:v>78808369005.932816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>284995854572.91614</c:v>
+                  <c:v>85633348823.043137</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>284567345064.54254</c:v>
+                  <c:v>84543756214.669556</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>284567345064.54254</c:v>
+                  <c:v>84543756214.669556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>285755346214.19824</c:v>
+                  <c:v>85214640314.325211</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>286151346597.41675</c:v>
+                  <c:v>85438268347.543762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>286151346597.41675</c:v>
+                  <c:v>85438268347.543762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10065,6 +10193,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0EB90EA2-A127-E547-9D74-1813E6DCC22C}" name="Table2" displayName="Table2" ref="B12:M23" totalsRowCount="1" headerRowDxfId="285" dataDxfId="284" totalsRowDxfId="283" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B12:M22" xr:uid="{0EB90EA2-A127-E547-9D74-1813E6DCC22C}">
@@ -10931,8 +11063,8 @@
   </sheetPr>
   <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="141" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:M19"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="141" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10988,47 +11120,47 @@
       </c>
       <c r="C3" s="20">
         <f>'TE Office'!C9</f>
-        <v>0.80651318506282987</v>
+        <v>0.25761153783286894</v>
       </c>
       <c r="D3" s="20">
         <f>'TE Office'!D9</f>
-        <v>0.84746186247561472</v>
+        <v>0.22383145659188156</v>
       </c>
       <c r="E3" s="20">
         <f>'TE Office'!E9</f>
-        <v>0.90940881520945416</v>
+        <v>0.23700398956850918</v>
       </c>
       <c r="F3" s="20">
         <f>'TE Office'!F9</f>
-        <v>0.9061006849015163</v>
+        <v>0.23369585926057126</v>
       </c>
       <c r="G3" s="20">
         <f>'TE Office'!G9</f>
-        <v>0.90275531722103852</v>
+        <v>0.23035049158009344</v>
       </c>
       <c r="H3" s="20">
         <f>'TE Office'!H9</f>
-        <v>0.92456308122655606</v>
+        <v>0.24913612860508491</v>
       </c>
       <c r="I3" s="20">
         <f>'TE Office'!I9</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="J3" s="20">
         <f>'TE Office'!J9</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="K3" s="20">
         <f>'TE Office'!K9</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="L3" s="20">
         <f>'TE Office'!L9</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="M3" s="20">
         <f>'TE Office'!M9</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
     </row>
     <row r="4" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11240,47 +11372,47 @@
       </c>
       <c r="C13" s="8">
         <f>'TE Office'!C7</f>
-        <v>248951980320.72696</v>
+        <v>90927402059.146957</v>
       </c>
       <c r="D13" s="8">
         <f>'TE Office'!D7</f>
-        <v>259869334084.18256</v>
+        <v>78095509903.296066</v>
       </c>
       <c r="E13" s="8">
         <f>'TE Office'!E7</f>
-        <v>279770671830.10236</v>
+        <v>82066817080.229385</v>
       </c>
       <c r="F13" s="8">
         <f>'TE Office'!F7</f>
-        <v>278616122955.80579</v>
+        <v>80744025805.932816</v>
       </c>
       <c r="G13" s="8">
         <f>'TE Office'!G7</f>
-        <v>276680466155.80579</v>
+        <v>78808369005.932816</v>
       </c>
       <c r="H13" s="8">
         <f>'TE Office'!H7</f>
-        <v>284995854572.91614</v>
+        <v>85633348823.043137</v>
       </c>
       <c r="I13" s="8">
         <f>'TE Office'!I7</f>
-        <v>284567345064.54254</v>
+        <v>84543756214.669556</v>
       </c>
       <c r="J13" s="8">
         <f>'TE Office'!J7</f>
-        <v>284567345064.54254</v>
+        <v>84543756214.669556</v>
       </c>
       <c r="K13" s="8">
         <f>'TE Office'!K7</f>
-        <v>285755346214.19824</v>
+        <v>85214640314.325211</v>
       </c>
       <c r="L13" s="8">
         <f>'TE Office'!L7</f>
-        <v>286151346597.41675</v>
+        <v>85438268347.543762</v>
       </c>
       <c r="M13" s="8">
         <f>'TE Office'!M7</f>
-        <v>286151346597.41675</v>
+        <v>85438268347.543762</v>
       </c>
       <c r="N13" s="22"/>
     </row>
@@ -11337,39 +11469,39 @@
       </c>
       <c r="E15" s="8" cm="1">
         <f t="array" ref="E15">Table36[2024]</f>
-        <v>24416595021.269829</v>
+        <v>19127965858.977055</v>
       </c>
       <c r="F15" s="8" cm="1">
         <f t="array" ref="F15">Table36[2025]</f>
-        <v>24057893174.967743</v>
+        <v>18769264012.674965</v>
       </c>
       <c r="G15" s="8" cm="1">
         <f t="array" ref="G15">Table36[2026]</f>
-        <v>23695153665.986694</v>
+        <v>18406524503.693913</v>
       </c>
       <c r="H15" s="8" cm="1">
         <f t="array" ref="H15">Table36[2027]</f>
-        <v>26059777935.39024</v>
+        <v>20443458377.990322</v>
       </c>
       <c r="I15" s="8" cm="1">
         <f t="array" ref="I15">Table36[2028]</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="J15" s="8" cm="1">
         <f t="array" ref="J15">Table36[2029]</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="K15" s="8" cm="1">
         <f t="array" ref="K15">Table36[2030]</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="L15" s="8" cm="1">
         <f t="array" ref="L15">Table36[2031]</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="M15" s="8" cm="1">
         <f t="array" ref="M15">Table36[2032]</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="N15" s="23"/>
     </row>
@@ -11437,39 +11569,39 @@
       </c>
       <c r="E17" s="8">
         <f>Table4[[#Totals],[2024]]</f>
-        <v>9645669240.2241859</v>
+        <v>7663997929.2672911</v>
       </c>
       <c r="F17" s="8">
         <f>Table4[[#Totals],[2025]]</f>
-        <v>9511262168.7145729</v>
+        <v>7529590857.7576752</v>
       </c>
       <c r="G17" s="8">
         <f>Table4[[#Totals],[2026]]</f>
-        <v>9375342168.2306099</v>
+        <v>7393670857.2737103</v>
       </c>
       <c r="H17" s="8">
         <f>Table4[[#Totals],[2027]]</f>
-        <v>10261376702.336218</v>
+        <v>8156918439.4239998</v>
       </c>
       <c r="I17" s="8">
         <f>Table4[[#Totals],[2028]]</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="J17" s="8">
         <f>Table4[[#Totals],[2029]]</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="K17" s="8">
         <f>Table4[[#Totals],[2030]]</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="L17" s="8">
         <f>Table4[[#Totals],[2031]]</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="M17" s="8">
         <f>Table4[[#Totals],[2032]]</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="N17" s="23"/>
     </row>
@@ -11718,90 +11850,90 @@
       </c>
       <c r="C23" s="9">
         <f>SUBTOTAL(109,Table2[2022])</f>
-        <v>320000736080.66931</v>
+        <v>161976157819.08929</v>
       </c>
       <c r="D23" s="9">
         <f>SUBTOTAL(109,Table2[2023])</f>
-        <v>338705101412.07971</v>
+        <v>156931277231.19324</v>
       </c>
       <c r="E23" s="9">
         <f>SUBTOTAL(109,Table2[2024])</f>
-        <v>369808233471.06494</v>
+        <v>164834078247.94229</v>
       </c>
       <c r="F23" s="9">
         <f>SUBTOTAL(109,Table2[2025])</f>
-        <v>371183345680.15674</v>
+        <v>166040948057.03406</v>
       </c>
       <c r="G23" s="9">
         <f>SUBTOTAL(109,Table2[2026])</f>
-        <v>371661489370.69165</v>
+        <v>166519091747.56903</v>
       </c>
       <c r="H23" s="9">
         <f>SUBTOTAL(109,Table2[2027])</f>
-        <v>384827536591.31122</v>
+        <v>177744253021.12604</v>
       </c>
       <c r="I23" s="9">
         <f>SUBTOTAL(109,Table2[2028])</f>
-        <v>386159518622.84161</v>
+        <v>178189913279.12527</v>
       </c>
       <c r="J23" s="9">
         <f>SUBTOTAL(109,Table2[2029])</f>
-        <v>387259518622.84161</v>
+        <v>179289913279.12527</v>
       </c>
       <c r="K23" s="9">
         <f>SUBTOTAL(109,Table2[2030])</f>
-        <v>389547519772.49731</v>
+        <v>181060797378.78094</v>
       </c>
       <c r="L23" s="9">
         <f>SUBTOTAL(109,Table2[2031])</f>
-        <v>390543520155.71582</v>
+        <v>181884425411.99948</v>
       </c>
       <c r="M23" s="9">
         <f>SUBTOTAL(109,Table2[2032])</f>
-        <v>391143520155.71582</v>
+        <v>182484425411.99948</v>
       </c>
       <c r="N23" s="24"/>
     </row>
     <row r="24" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="8">
         <f>Table2[[#Totals],[2023]]/14750</f>
-        <v>22963057.722852863</v>
+        <v>10639408.625843609</v>
       </c>
       <c r="E24" s="8">
         <f>Table2[[#Totals],[2024]]/14750</f>
-        <v>25071744.642106097</v>
+        <v>11175191.745623207</v>
       </c>
       <c r="F24" s="8">
         <f>Table2[[#Totals],[2025]]/14750</f>
-        <v>25164972.588485204</v>
+        <v>11257013.42759553</v>
       </c>
       <c r="G24" s="8">
         <f>Table2[[#Totals],[2026]]/14750</f>
-        <v>25197389.1098774</v>
+        <v>11289429.948987732</v>
       </c>
       <c r="H24" s="8">
         <f>Table2[[#Totals],[2027]]/14750</f>
-        <v>26090002.480766863</v>
+        <v>12050457.831940748</v>
       </c>
       <c r="I24" s="8">
         <f>Table2[[#Totals],[2028]]/14750</f>
-        <v>26180306.347311296</v>
+        <v>12080672.086720357</v>
       </c>
       <c r="J24" s="8">
         <f>Table2[[#Totals],[2029]]/14750</f>
-        <v>26254882.618497737</v>
+        <v>12155248.357906798</v>
       </c>
       <c r="K24" s="8">
         <f>Table2[[#Totals],[2030]]/14750</f>
-        <v>26410001.340508293</v>
+        <v>12275308.296866504</v>
       </c>
       <c r="L24" s="8">
         <f>Table2[[#Totals],[2031]]/14750</f>
-        <v>26477526.790218022</v>
+        <v>12331147.485559287</v>
       </c>
       <c r="M24" s="8">
         <f>Table2[[#Totals],[2032]]/14750</f>
-        <v>26518204.756319717</v>
+        <v>12371825.451660981</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11981,39 +12113,39 @@
       </c>
       <c r="E30" s="8" cm="1">
         <f t="array" ref="E30">Table36[2024]</f>
-        <v>24416595021.269829</v>
+        <v>19127965858.977055</v>
       </c>
       <c r="F30" s="8" cm="1">
         <f t="array" ref="F30">Table36[2025]</f>
-        <v>24057893174.967743</v>
+        <v>18769264012.674965</v>
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">Table36[2026]</f>
-        <v>23695153665.986694</v>
+        <v>18406524503.693913</v>
       </c>
       <c r="H30" s="8" cm="1">
         <f t="array" ref="H30">Table36[2027]</f>
-        <v>26059777935.39024</v>
+        <v>20443458377.990322</v>
       </c>
       <c r="I30" s="8" cm="1">
         <f t="array" ref="I30">Table36[2028]</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="J30" s="8" cm="1">
         <f t="array" ref="J30">Table36[2029]</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="K30" s="8" cm="1">
         <f t="array" ref="K30">Table36[2030]</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="L30" s="8" cm="1">
         <f t="array" ref="L30">Table36[2031]</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="M30" s="8" cm="1">
         <f t="array" ref="M30">Table36[2032]</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="N30" s="23"/>
     </row>
@@ -12081,39 +12213,39 @@
       </c>
       <c r="E32" s="8">
         <f>Table4[[#Totals],[2024]]</f>
-        <v>9645669240.2241859</v>
+        <v>7663997929.2672911</v>
       </c>
       <c r="F32" s="8">
         <f>Table4[[#Totals],[2025]]</f>
-        <v>9511262168.7145729</v>
+        <v>7529590857.7576752</v>
       </c>
       <c r="G32" s="8">
         <f>Table4[[#Totals],[2026]]</f>
-        <v>9375342168.2306099</v>
+        <v>7393670857.2737103</v>
       </c>
       <c r="H32" s="8">
         <f>Table4[[#Totals],[2027]]</f>
-        <v>10261376702.336218</v>
+        <v>8156918439.4239998</v>
       </c>
       <c r="I32" s="8">
         <f>Table4[[#Totals],[2028]]</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="J32" s="8">
         <f>Table4[[#Totals],[2029]]</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="K32" s="8">
         <f>Table4[[#Totals],[2030]]</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="L32" s="8">
         <f>Table4[[#Totals],[2031]]</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="M32" s="8">
         <f>Table4[[#Totals],[2032]]</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="N32" s="23"/>
     </row>
@@ -12359,39 +12491,39 @@
       </c>
       <c r="E38" s="9">
         <f>SUBTOTAL(109,Table211[2024])</f>
-        <v>352415288250.59235</v>
+        <v>345144987777.34271</v>
       </c>
       <c r="F38" s="9">
         <f>SUBTOTAL(109,Table211[2025])</f>
-        <v>354240884197.19928</v>
+        <v>346970583723.94958</v>
       </c>
       <c r="G38" s="9">
         <f>SUBTOTAL(109,Table211[2026])</f>
-        <v>354476435847.73425</v>
+        <v>347206135374.48456</v>
       </c>
       <c r="H38" s="9">
         <f>SUBTOTAL(109,Table211[2027])</f>
-        <v>354609965690.89905</v>
+        <v>346889187870.58691</v>
       </c>
       <c r="I38" s="9">
         <f>SUBTOTAL(109,Table211[2028])</f>
-        <v>355922605204.02161</v>
+        <v>347976588710.17834</v>
       </c>
       <c r="J38" s="9">
         <f>SUBTOTAL(109,Table211[2029])</f>
-        <v>357022605204.02161</v>
+        <v>349076588710.17834</v>
       </c>
       <c r="K38" s="9">
         <f>SUBTOTAL(109,Table211[2030])</f>
-        <v>359115311753.67725</v>
+        <v>351169295259.83398</v>
       </c>
       <c r="L38" s="9">
         <f>SUBTOTAL(109,Table211[2031])</f>
-        <v>360046213936.89581</v>
+        <v>352100197443.05249</v>
       </c>
       <c r="M38" s="9">
         <f>SUBTOTAL(109,Table211[2032])</f>
-        <v>360646213936.89581</v>
+        <v>352700197443.05249</v>
       </c>
       <c r="N38" s="24"/>
     </row>
@@ -12402,39 +12534,39 @@
       </c>
       <c r="E39" s="8">
         <f>Table211[[#Totals],[2024]]/14750</f>
-        <v>23892561.915294398</v>
+        <v>23399660.188294422</v>
       </c>
       <c r="F39" s="8">
         <f>Table211[[#Totals],[2025]]/14750</f>
-        <v>24016331.132013511</v>
+        <v>23523429.405013531</v>
       </c>
       <c r="G39" s="8">
         <f>Table211[[#Totals],[2026]]/14750</f>
-        <v>24032300.73543961</v>
+        <v>23539399.00843963</v>
       </c>
       <c r="H39" s="8">
         <f>Table211[[#Totals],[2027]]/14750</f>
-        <v>24041353.606162649</v>
+        <v>23517911.042073689</v>
       </c>
       <c r="I39" s="8">
         <f>Table211[[#Totals],[2028]]/14750</f>
-        <v>24130346.115526889</v>
+        <v>23591633.132893447</v>
       </c>
       <c r="J39" s="8">
         <f>Table211[[#Totals],[2029]]/14750</f>
-        <v>24204922.38671333</v>
+        <v>23666209.404079888</v>
       </c>
       <c r="K39" s="8">
         <f>Table211[[#Totals],[2030]]/14750</f>
-        <v>24346800.796859473</v>
+        <v>23808087.814226031</v>
       </c>
       <c r="L39" s="8">
         <f>Table211[[#Totals],[2031]]/14750</f>
-        <v>24409912.809281074</v>
+        <v>23871199.826647628</v>
       </c>
       <c r="M39" s="8">
         <f>Table211[[#Totals],[2032]]/14750</f>
-        <v>24450590.775382768</v>
+        <v>23911877.792749323</v>
       </c>
     </row>
   </sheetData>
@@ -12453,6 +12585,62 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DDB91947-C232-1C4C-819B-643D68F76A89}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!C28:M28</xm:f>
+              <xm:sqref>N28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C29:M29</xm:f>
+              <xm:sqref>N29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C30:M30</xm:f>
+              <xm:sqref>N30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C31:M31</xm:f>
+              <xm:sqref>N31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C32:M32</xm:f>
+              <xm:sqref>N32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C33:M33</xm:f>
+              <xm:sqref>N33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C34:M34</xm:f>
+              <xm:sqref>N34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C35:M35</xm:f>
+              <xm:sqref>N35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C36:M36</xm:f>
+              <xm:sqref>N36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C37:M37</xm:f>
+              <xm:sqref>N37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C38:M38</xm:f>
+              <xm:sqref>N38</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{41AC8C04-055F-BC46-990B-A8AFCC66F91D}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -12509,62 +12697,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DDB91947-C232-1C4C-819B-643D68F76A89}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!C28:M28</xm:f>
-              <xm:sqref>N28</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C29:M29</xm:f>
-              <xm:sqref>N29</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C30:M30</xm:f>
-              <xm:sqref>N30</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C31:M31</xm:f>
-              <xm:sqref>N31</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C32:M32</xm:f>
-              <xm:sqref>N32</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C33:M33</xm:f>
-              <xm:sqref>N33</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C34:M34</xm:f>
-              <xm:sqref>N34</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C35:M35</xm:f>
-              <xm:sqref>N35</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C36:M36</xm:f>
-              <xm:sqref>N36</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C37:M37</xm:f>
-              <xm:sqref>N37</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C38:M38</xm:f>
-              <xm:sqref>N38</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -12597,47 +12729,47 @@
       </c>
       <c r="F2" s="43">
         <f>Summary!$C$3</f>
-        <v>0.80651318506282987</v>
+        <v>0.25761153783286894</v>
       </c>
       <c r="G2" s="43">
         <f>Summary!$D$3</f>
-        <v>0.84746186247561472</v>
+        <v>0.22383145659188156</v>
       </c>
       <c r="H2" s="62">
         <f>Summary!$E$3</f>
-        <v>0.90940881520945416</v>
+        <v>0.23700398956850918</v>
       </c>
       <c r="I2" s="63">
         <f>Summary!$F$3</f>
-        <v>0.9061006849015163</v>
+        <v>0.23369585926057126</v>
       </c>
       <c r="J2" s="63">
         <f>Summary!$G$3</f>
-        <v>0.90275531722103852</v>
+        <v>0.23035049158009344</v>
       </c>
       <c r="K2" s="63">
         <f>Summary!$H$3</f>
-        <v>0.92456308122655606</v>
+        <v>0.24913612860508491</v>
       </c>
       <c r="L2" s="63">
         <f>Summary!$I$3</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="M2" s="63">
         <f>Summary!$J$3</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="N2" s="63">
         <f>Summary!$K$3</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="O2" s="63">
         <f>Summary!$L$3</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="P2" s="63">
         <f>Summary!$M$3</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
     </row>
     <row r="3" spans="2:17" s="44" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -12781,39 +12913,39 @@
       </c>
       <c r="H8" s="81">
         <f>Table4[[#Totals],[2023]]+(H2-G2)*100*$I$11</f>
-        <v>9645669240.2241859</v>
+        <v>7663997929.2672911</v>
       </c>
       <c r="I8" s="82">
         <f>Table4[[#Totals],[2024]]+(I2-H2)*100*$I$11</f>
-        <v>9511262168.7145729</v>
+        <v>7529590857.7576752</v>
       </c>
       <c r="J8" s="82">
         <f>Table4[[#Totals],[2025]]+(J2-I2)*100*$I$11</f>
-        <v>9375342168.2306099</v>
+        <v>7393670857.2737103</v>
       </c>
       <c r="K8" s="82">
         <f>Table4[[#Totals],[2026]]+(K2-J2)*100*$I$11</f>
-        <v>10261376702.336218</v>
+        <v>8156918439.4239998</v>
       </c>
       <c r="L8" s="82">
         <f>Table4[[#Totals],[2027]]+(L2-K2)*100*$I$11</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="M8" s="82">
         <f>Table4[[#Totals],[2028]]+(M2-L2)*100*$I$11</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="N8" s="82">
         <f>Table4[[#Totals],[2029]]+(N2-M2)*100*$I$11</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="O8" s="82">
         <f>Table4[[#Totals],[2030]]+(O2-N2)*100*$I$11</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="P8" s="82">
         <f>Table4[[#Totals],[2031]]+(P2-O2)*100*$I$11</f>
-        <v>10168836624.016922</v>
+        <v>8002984885.1270523</v>
       </c>
       <c r="Q8" s="79"/>
     </row>
@@ -12941,10 +13073,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:N79"/>
+  <dimension ref="A2:ED79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B3" sqref="B3:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12955,43 +13087,48 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29"/>
-      <c r="C3" s="6">
+    <row r="2" spans="1:134" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:134" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="103">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="103">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="103">
         <v>3</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="103">
         <v>4</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="103">
         <v>5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="103">
         <v>6</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="103">
         <v>7</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="103">
         <v>8</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="103">
         <v>9</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="103">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="103"/>
+      <c r="O3" s="104"/>
+    </row>
+    <row r="4" spans="1:134" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="105"/>
       <c r="B4" s="29" t="s">
         <v>64</v>
       </c>
@@ -13028,219 +13165,354 @@
       <c r="M4" s="31">
         <v>48579</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N4" s="115"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="115"/>
+      <c r="AG4" s="115"/>
+      <c r="AH4" s="115"/>
+      <c r="AI4" s="115"/>
+      <c r="AJ4" s="115"/>
+      <c r="AK4" s="115"/>
+      <c r="AL4" s="115"/>
+      <c r="AM4" s="115"/>
+      <c r="AN4" s="115"/>
+      <c r="AO4" s="115"/>
+      <c r="AP4" s="115"/>
+      <c r="AQ4" s="115"/>
+      <c r="AR4" s="115"/>
+      <c r="AS4" s="115"/>
+      <c r="AT4" s="115"/>
+      <c r="AU4" s="115"/>
+      <c r="AV4" s="115"/>
+      <c r="AW4" s="115"/>
+      <c r="AX4" s="115"/>
+      <c r="AY4" s="115"/>
+      <c r="AZ4" s="115"/>
+      <c r="BA4" s="115"/>
+      <c r="BB4" s="115"/>
+      <c r="BC4" s="115"/>
+      <c r="BD4" s="115"/>
+      <c r="BE4" s="115"/>
+      <c r="BF4" s="115"/>
+      <c r="BG4" s="115"/>
+      <c r="BH4" s="115"/>
+      <c r="BI4" s="115"/>
+      <c r="BJ4" s="115"/>
+      <c r="BK4" s="115"/>
+      <c r="BL4" s="115"/>
+      <c r="BM4" s="115"/>
+      <c r="BN4" s="115"/>
+      <c r="BO4" s="115"/>
+      <c r="BP4" s="115"/>
+      <c r="BQ4" s="115"/>
+      <c r="BR4" s="115"/>
+      <c r="BS4" s="115"/>
+      <c r="BT4" s="115"/>
+      <c r="BU4" s="115"/>
+      <c r="BV4" s="115"/>
+      <c r="BW4" s="115"/>
+      <c r="BX4" s="115"/>
+      <c r="BY4" s="115"/>
+      <c r="BZ4" s="115"/>
+      <c r="CA4" s="115"/>
+      <c r="CB4" s="115"/>
+      <c r="CC4" s="115"/>
+      <c r="CD4" s="115"/>
+      <c r="CE4" s="115"/>
+      <c r="CF4" s="115"/>
+      <c r="CG4" s="115"/>
+      <c r="CH4" s="115"/>
+      <c r="CI4" s="115"/>
+      <c r="CJ4" s="115"/>
+      <c r="CK4" s="115"/>
+      <c r="CL4" s="115"/>
+      <c r="CM4" s="115"/>
+      <c r="CN4" s="115"/>
+      <c r="CO4" s="115"/>
+      <c r="CP4" s="115"/>
+      <c r="CQ4" s="115"/>
+      <c r="CR4" s="115"/>
+      <c r="CS4" s="115"/>
+      <c r="CT4" s="115"/>
+      <c r="CU4" s="115"/>
+      <c r="CV4" s="115"/>
+      <c r="CW4" s="115"/>
+      <c r="CX4" s="115"/>
+      <c r="CY4" s="115"/>
+      <c r="CZ4" s="115"/>
+      <c r="DA4" s="115"/>
+      <c r="DB4" s="115"/>
+      <c r="DC4" s="115"/>
+      <c r="DD4" s="115"/>
+      <c r="DE4" s="115"/>
+      <c r="DF4" s="115"/>
+      <c r="DG4" s="115"/>
+      <c r="DH4" s="115"/>
+      <c r="DI4" s="115"/>
+      <c r="DJ4" s="115"/>
+      <c r="DK4" s="115"/>
+      <c r="DL4" s="115"/>
+      <c r="DM4" s="115"/>
+      <c r="DN4" s="115"/>
+      <c r="DO4" s="115"/>
+      <c r="DP4" s="115"/>
+      <c r="DQ4" s="115"/>
+      <c r="DR4" s="115"/>
+      <c r="DS4" s="115"/>
+      <c r="DT4" s="115"/>
+      <c r="DU4" s="115"/>
+      <c r="DV4" s="115"/>
+      <c r="DW4" s="115"/>
+      <c r="DX4" s="115"/>
+      <c r="DY4" s="115"/>
+      <c r="DZ4" s="115"/>
+      <c r="EA4" s="115"/>
+      <c r="EB4" s="115"/>
+      <c r="EC4" s="115"/>
+      <c r="ED4" s="115"/>
+    </row>
+    <row r="5" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="106"/>
       <c r="B5" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="32">
-        <v>205647908168.79742</v>
+        <v>77781892471.217407</v>
       </c>
       <c r="D5" s="33">
-        <v>213915213433.65952</v>
+        <v>66672574024.878815</v>
       </c>
       <c r="E5" s="33">
-        <v>229176264737.38779</v>
+        <v>69325573983.726395</v>
       </c>
       <c r="F5" s="33">
-        <v>227814840567.38779</v>
+        <v>67964149813.726395</v>
       </c>
       <c r="G5" s="33">
-        <v>226062051017.38779</v>
+        <v>66211360263.726395</v>
       </c>
       <c r="H5" s="33">
-        <v>231990869097.38779</v>
+        <v>71330708143.726395</v>
       </c>
       <c r="I5" s="33">
-        <v>231296458142.34375</v>
+        <v>70231562088.682358</v>
       </c>
       <c r="J5" s="33">
-        <v>231296458142.34375</v>
+        <v>70231562088.682358</v>
       </c>
       <c r="K5" s="33">
-        <v>231296458142.34375</v>
+        <v>70231562088.682358</v>
       </c>
       <c r="L5" s="33">
-        <v>231296458142.34375</v>
+        <v>70231562088.682358</v>
       </c>
       <c r="M5" s="33">
-        <v>231296458142.34375</v>
+        <v>70231562088.682358</v>
       </c>
       <c r="N5" s="38"/>
-    </row>
-    <row r="6" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="107"/>
+    </row>
+    <row r="6" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="106"/>
       <c r="B6" s="29" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="32">
-        <v>43304072151.929543</v>
+        <v>13145509587.929544</v>
       </c>
       <c r="D6" s="33">
-        <v>45954120650.523056</v>
+        <v>11422935878.417253</v>
       </c>
       <c r="E6" s="33">
-        <v>50594407092.714592</v>
+        <v>12741243096.502985</v>
       </c>
       <c r="F6" s="33">
-        <v>50801282388.41803</v>
+        <v>12779875992.206425</v>
       </c>
       <c r="G6" s="33">
-        <v>50618415138.41803</v>
+        <v>12597008742.206425</v>
       </c>
       <c r="H6" s="33">
-        <v>53004985475.528358</v>
+        <v>14302640679.316746</v>
       </c>
       <c r="I6" s="33">
-        <v>53270886922.198814</v>
+        <v>14312194125.987206</v>
       </c>
       <c r="J6" s="33">
-        <v>53270886922.198814</v>
+        <v>14312194125.987206</v>
       </c>
       <c r="K6" s="33">
-        <v>54458888071.854462</v>
+        <v>14983078225.642855</v>
       </c>
       <c r="L6" s="33">
-        <v>54854888455.073013</v>
+        <v>15206706258.861404</v>
       </c>
       <c r="M6" s="33">
-        <v>54854888455.073013</v>
+        <v>15206706258.861404</v>
       </c>
       <c r="N6" s="39"/>
-    </row>
-    <row r="7" spans="2:14" s="30" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="107"/>
+    </row>
+    <row r="7" spans="1:134" s="30" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="108"/>
       <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="34">
-        <v>248951980320.72696</v>
+        <v>90927402059.146957</v>
       </c>
       <c r="D7" s="35">
-        <v>259869334084.18256</v>
+        <v>78095509903.296066</v>
       </c>
       <c r="E7" s="35">
-        <v>279770671830.10236</v>
+        <v>82066817080.229385</v>
       </c>
       <c r="F7" s="35">
-        <v>278616122955.80579</v>
+        <v>80744025805.932816</v>
       </c>
       <c r="G7" s="35">
-        <v>276680466155.80579</v>
+        <v>78808369005.932816</v>
       </c>
       <c r="H7" s="35">
-        <v>284995854572.91614</v>
+        <v>85633348823.043137</v>
       </c>
       <c r="I7" s="35">
-        <v>284567345064.54254</v>
+        <v>84543756214.669556</v>
       </c>
       <c r="J7" s="35">
-        <v>284567345064.54254</v>
+        <v>84543756214.669556</v>
       </c>
       <c r="K7" s="35">
-        <v>285755346214.19824</v>
+        <v>85214640314.325211</v>
       </c>
       <c r="L7" s="35">
-        <v>286151346597.41675</v>
+        <v>85438268347.543762</v>
       </c>
       <c r="M7" s="35">
-        <v>286151346597.41675</v>
+        <v>85438268347.543762</v>
       </c>
       <c r="N7" s="40"/>
-    </row>
-    <row r="8" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="109"/>
+    </row>
+    <row r="8" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="106"/>
       <c r="B8" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="32">
-        <v>48984.76617610659</v>
+        <v>15646.416176106604</v>
       </c>
       <c r="D8" s="33">
-        <v>51471.844410456622</v>
+        <v>13594.73318859197</v>
       </c>
       <c r="E8" s="33">
-        <v>55234.283823958656</v>
+        <v>14394.786380229363</v>
       </c>
       <c r="F8" s="33">
-        <v>55033.359657291992</v>
+        <v>14193.862213562694</v>
       </c>
       <c r="G8" s="33">
-        <v>54830.173823958663</v>
+        <v>13990.676380229363</v>
       </c>
       <c r="H8" s="33">
-        <v>56154.700490625335</v>
+        <v>15131.649713562694</v>
       </c>
       <c r="I8" s="33">
-        <v>56016.362991632639</v>
+        <v>14901.535547903337</v>
       </c>
       <c r="J8" s="33">
-        <v>56016.362991632639</v>
+        <v>14901.535547903337</v>
       </c>
       <c r="K8" s="33">
-        <v>56016.362991632639</v>
+        <v>14901.535547903337</v>
       </c>
       <c r="L8" s="33">
-        <v>56016.362991632639</v>
+        <v>14901.535547903337</v>
       </c>
       <c r="M8" s="33">
-        <v>56016.362991632639</v>
+        <v>14901.535547903337</v>
       </c>
       <c r="N8" s="39"/>
-    </row>
-    <row r="9" spans="2:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="107"/>
+    </row>
+    <row r="9" spans="1:134" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="106"/>
       <c r="B9" s="29" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="36">
-        <v>0.80651318506282987</v>
+        <v>0.25761153783286894</v>
       </c>
       <c r="D9" s="37">
-        <v>0.84746186247561472</v>
+        <v>0.22383145659188156</v>
       </c>
       <c r="E9" s="37">
-        <v>0.90940881520945416</v>
+        <v>0.23700398956850918</v>
       </c>
       <c r="F9" s="37">
-        <v>0.9061006849015163</v>
+        <v>0.23369585926057126</v>
       </c>
       <c r="G9" s="37">
-        <v>0.90275531722103852</v>
+        <v>0.23035049158009344</v>
       </c>
       <c r="H9" s="37">
-        <v>0.92456308122655606</v>
+        <v>0.24913612860508491</v>
       </c>
       <c r="I9" s="37">
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="J9" s="37">
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="K9" s="37">
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="L9" s="37">
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="M9" s="37">
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="N9" s="41"/>
-    </row>
-    <row r="10" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-    </row>
-    <row r="11" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="107"/>
+    </row>
+    <row r="10" spans="1:134" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="114"/>
+    </row>
+    <row r="11" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="100"/>
     </row>
-    <row r="12" spans="2:14" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:134" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="29"/>
       <c r="C12" s="6">
         <v>0</v>
@@ -13276,7 +13548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:14" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:134" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>64</v>
       </c>
@@ -13313,8 +13585,129 @@
       <c r="M13" s="31">
         <v>48579</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="115"/>
+      <c r="AB13" s="115"/>
+      <c r="AC13" s="115"/>
+      <c r="AD13" s="115"/>
+      <c r="AE13" s="115"/>
+      <c r="AF13" s="115"/>
+      <c r="AG13" s="115"/>
+      <c r="AH13" s="115"/>
+      <c r="AI13" s="115"/>
+      <c r="AJ13" s="115"/>
+      <c r="AK13" s="115"/>
+      <c r="AL13" s="115"/>
+      <c r="AM13" s="115"/>
+      <c r="AN13" s="115"/>
+      <c r="AO13" s="115"/>
+      <c r="AP13" s="115"/>
+      <c r="AQ13" s="115"/>
+      <c r="AR13" s="115"/>
+      <c r="AS13" s="115"/>
+      <c r="AT13" s="115"/>
+      <c r="AU13" s="115"/>
+      <c r="AV13" s="115"/>
+      <c r="AW13" s="115"/>
+      <c r="AX13" s="115"/>
+      <c r="AY13" s="115"/>
+      <c r="AZ13" s="115"/>
+      <c r="BA13" s="115"/>
+      <c r="BB13" s="115"/>
+      <c r="BC13" s="115"/>
+      <c r="BD13" s="115"/>
+      <c r="BE13" s="115"/>
+      <c r="BF13" s="115"/>
+      <c r="BG13" s="115"/>
+      <c r="BH13" s="115"/>
+      <c r="BI13" s="115"/>
+      <c r="BJ13" s="115"/>
+      <c r="BK13" s="115"/>
+      <c r="BL13" s="115"/>
+      <c r="BM13" s="115"/>
+      <c r="BN13" s="115"/>
+      <c r="BO13" s="115"/>
+      <c r="BP13" s="115"/>
+      <c r="BQ13" s="115"/>
+      <c r="BR13" s="115"/>
+      <c r="BS13" s="115"/>
+      <c r="BT13" s="115"/>
+      <c r="BU13" s="115"/>
+      <c r="BV13" s="115"/>
+      <c r="BW13" s="115"/>
+      <c r="BX13" s="115"/>
+      <c r="BY13" s="115"/>
+      <c r="BZ13" s="115"/>
+      <c r="CA13" s="115"/>
+      <c r="CB13" s="115"/>
+      <c r="CC13" s="115"/>
+      <c r="CD13" s="115"/>
+      <c r="CE13" s="115"/>
+      <c r="CF13" s="115"/>
+      <c r="CG13" s="115"/>
+      <c r="CH13" s="115"/>
+      <c r="CI13" s="115"/>
+      <c r="CJ13" s="115"/>
+      <c r="CK13" s="115"/>
+      <c r="CL13" s="115"/>
+      <c r="CM13" s="115"/>
+      <c r="CN13" s="115"/>
+      <c r="CO13" s="115"/>
+      <c r="CP13" s="115"/>
+      <c r="CQ13" s="115"/>
+      <c r="CR13" s="115"/>
+      <c r="CS13" s="115"/>
+      <c r="CT13" s="115"/>
+      <c r="CU13" s="115"/>
+      <c r="CV13" s="115"/>
+      <c r="CW13" s="115"/>
+      <c r="CX13" s="115"/>
+      <c r="CY13" s="115"/>
+      <c r="CZ13" s="115"/>
+      <c r="DA13" s="115"/>
+      <c r="DB13" s="115"/>
+      <c r="DC13" s="115"/>
+      <c r="DD13" s="115"/>
+      <c r="DE13" s="115"/>
+      <c r="DF13" s="115"/>
+      <c r="DG13" s="115"/>
+      <c r="DH13" s="115"/>
+      <c r="DI13" s="115"/>
+      <c r="DJ13" s="115"/>
+      <c r="DK13" s="115"/>
+      <c r="DL13" s="115"/>
+      <c r="DM13" s="115"/>
+      <c r="DN13" s="115"/>
+      <c r="DO13" s="115"/>
+      <c r="DP13" s="115"/>
+      <c r="DQ13" s="115"/>
+      <c r="DR13" s="115"/>
+      <c r="DS13" s="115"/>
+      <c r="DT13" s="115"/>
+      <c r="DU13" s="115"/>
+      <c r="DV13" s="115"/>
+      <c r="DW13" s="115"/>
+      <c r="DX13" s="115"/>
+      <c r="DY13" s="115"/>
+      <c r="DZ13" s="115"/>
+      <c r="EA13" s="115"/>
+      <c r="EB13" s="115"/>
+      <c r="EC13" s="115"/>
+      <c r="ED13" s="115"/>
+    </row>
+    <row r="14" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="29" t="s">
         <v>65</v>
       </c>
@@ -13353,7 +13746,7 @@
       </c>
       <c r="N14" s="38"/>
     </row>
-    <row r="15" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:134" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="29" t="s">
         <v>66</v>
       </c>
@@ -13392,7 +13785,7 @@
       </c>
       <c r="N15" s="39"/>
     </row>
-    <row r="16" spans="2:14" s="30" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:134" s="30" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
         <v>20</v>
       </c>
@@ -13520,76 +13913,6 @@
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
-      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{F5ADDBC2-ACC9-B94C-98B6-A764A5F6C6AF}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FAB1A9B4-5C50-4E42-8C73-D8DA4DBABC2E}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C14:M14</xm:f>
-              <xm:sqref>N14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C15:M15</xm:f>
-              <xm:sqref>N15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C16:M16</xm:f>
-              <xm:sqref>N16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C17:M17</xm:f>
-              <xm:sqref>N17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office'!C18:M18</xm:f>
-              <xm:sqref>N18</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-      </x14:sparklineGroups>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14964,7 +15287,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C71BF03F-71C7-CA48-A8E0-2F94EBAEAF89}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{27CA99C9-4EC6-5540-A65D-D31078C783F3}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -14975,24 +15298,56 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
+              <xm:f>'TE Office Old'!C47:M47</xm:f>
+              <xm:sqref>N47</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
+              <xm:f>'TE Office Old'!C48:M48</xm:f>
+              <xm:sqref>N48</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
+              <xm:f>'TE Office Old'!C49:M49</xm:f>
+              <xm:sqref>N49</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
+              <xm:f>'TE Office Old'!C50:M50</xm:f>
+              <xm:sqref>N50</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>'TE Office Old'!C51:M51</xm:f>
+              <xm:sqref>N51</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{8EB3746F-C49E-704D-A70B-BBE68538AD93}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C29:M29</xm:f>
+              <xm:sqref>N29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C30:M30</xm:f>
+              <xm:sqref>N30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C31:M31</xm:f>
+              <xm:sqref>N31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C32:M32</xm:f>
+              <xm:sqref>N32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C33:M33</xm:f>
+              <xm:sqref>N33</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -15028,7 +15383,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{8EB3746F-C49E-704D-A70B-BBE68538AD93}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C71BF03F-71C7-CA48-A8E0-2F94EBAEAF89}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -15039,56 +15394,24 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C29:M29</xm:f>
-              <xm:sqref>N29</xm:sqref>
+              <xm:f>'TE Office Old'!C5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C30:M30</xm:f>
-              <xm:sqref>N30</xm:sqref>
+              <xm:f>'TE Office Old'!C6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C31:M31</xm:f>
-              <xm:sqref>N31</xm:sqref>
+              <xm:f>'TE Office Old'!C7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C32:M32</xm:f>
-              <xm:sqref>N32</xm:sqref>
+              <xm:f>'TE Office Old'!C8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C33:M33</xm:f>
-              <xm:sqref>N33</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{27CA99C9-4EC6-5540-A65D-D31078C783F3}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C47:M47</xm:f>
-              <xm:sqref>N47</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C48:M48</xm:f>
-              <xm:sqref>N48</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C49:M49</xm:f>
-              <xm:sqref>N49</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C50:M50</xm:f>
-              <xm:sqref>N50</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C51:M51</xm:f>
-              <xm:sqref>N51</xm:sqref>
+              <xm:f>'TE Office Old'!C9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -16549,6 +16872,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FF5E32F6-76BA-B445-AB9C-94E4D0BCC643}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>SH!C4:P4</xm:f>
+              <xm:sqref>Q4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{990FA0E3-C61F-6E4B-84B3-0E05946D3E2D}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -16562,22 +16901,6 @@
             <x14:sparkline>
               <xm:f>SH!C9:P9</xm:f>
               <xm:sqref>Q9</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FF5E32F6-76BA-B445-AB9C-94E4D0BCC643}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>SH!C4:P4</xm:f>
-              <xm:sqref>Q4</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -16887,47 +17210,47 @@
       </c>
       <c r="F2" s="43">
         <f>Summary!$C$3</f>
-        <v>0.80651318506282987</v>
+        <v>0.25761153783286894</v>
       </c>
       <c r="G2" s="62">
         <f>Summary!$D$3</f>
-        <v>0.84746186247561472</v>
+        <v>0.22383145659188156</v>
       </c>
       <c r="H2" s="63">
         <f>Summary!$E$3</f>
-        <v>0.90940881520945416</v>
+        <v>0.23700398956850918</v>
       </c>
       <c r="I2" s="63">
         <f>Summary!$F$3</f>
-        <v>0.9061006849015163</v>
+        <v>0.23369585926057126</v>
       </c>
       <c r="J2" s="63">
         <f>Summary!$G$3</f>
-        <v>0.90275531722103852</v>
+        <v>0.23035049158009344</v>
       </c>
       <c r="K2" s="63">
         <f>Summary!$H$3</f>
-        <v>0.92456308122655606</v>
+        <v>0.24913612860508491</v>
       </c>
       <c r="L2" s="63">
         <f>Summary!$I$3</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="M2" s="63">
         <f>Summary!$J$3</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="N2" s="63">
         <f>Summary!$K$3</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="O2" s="63">
         <f>Summary!$L$3</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
       <c r="P2" s="63">
         <f>Summary!$M$3</f>
-        <v>0.92228541358341343</v>
+        <v>0.24534739747167941</v>
       </c>
     </row>
     <row r="3" spans="2:38" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -16977,22 +17300,22 @@
         <v>18</v>
       </c>
       <c r="W3" s="45"/>
-      <c r="X3" s="107" t="s">
+      <c r="X3" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
+      <c r="AB3" s="124"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="124"/>
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
       <c r="AL3" s="45"/>
     </row>
     <row r="4" spans="2:38" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17017,56 +17340,56 @@
       </c>
       <c r="H4" s="67">
         <f>Table36[[#This Row],[2023]]+(H2-G2)*100*$H$9</f>
-        <v>24416595021.269829</v>
+        <v>19127965858.977055</v>
       </c>
       <c r="I4" s="67">
         <f>Table36[[#This Row],[2024]]+(I2-H2)*100*$H$9</f>
-        <v>24057893174.967743</v>
+        <v>18769264012.674965</v>
       </c>
       <c r="J4" s="67">
         <f>Table36[[#This Row],[2025]]+(J2-I2)*100*$H$9</f>
-        <v>23695153665.986694</v>
+        <v>18406524503.693913</v>
       </c>
       <c r="K4" s="67">
         <f>Table36[[#This Row],[2026]]+(K2-J2)*100*$H$9</f>
-        <v>26059777935.39024</v>
+        <v>20443458377.990322</v>
       </c>
       <c r="L4" s="67">
         <f>Table36[[#This Row],[2027]]+(L2-K2)*100*$H$9</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="M4" s="67">
         <f>Table36[[#This Row],[2028]]+(M2-L2)*100*$H$9</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="N4" s="67">
         <f>Table36[[#This Row],[2029]]+(N2-M2)*100*$H$9</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="O4" s="67">
         <f>Table36[[#This Row],[2030]]+(O2-N2)*100*$H$9</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="P4" s="67">
         <f>Table36[[#This Row],[2031]]+(P2-O2)*100*$H$9</f>
-        <v>25812809553.613567</v>
+        <v>20032644798.660099</v>
       </c>
       <c r="Q4" s="79"/>
       <c r="W4" s="45"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="126"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="126"/>
+      <c r="AC4" s="126"/>
+      <c r="AD4" s="126"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="126"/>
+      <c r="AH4" s="126"/>
+      <c r="AI4" s="126"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="45"/>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.2">
@@ -17081,7 +17404,7 @@
       <c r="O5" s="69"/>
       <c r="P5" s="69"/>
       <c r="W5" s="45"/>
-      <c r="X5" s="111" t="s">
+      <c r="X5" s="127" t="s">
         <v>23</v>
       </c>
       <c r="Y5" s="12" t="s">
@@ -17141,7 +17464,7 @@
       <c r="O6" s="69"/>
       <c r="P6" s="69"/>
       <c r="W6" s="45"/>
-      <c r="X6" s="112"/>
+      <c r="X6" s="128"/>
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
@@ -17432,22 +17755,22 @@
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.2">
       <c r="W13" s="45"/>
-      <c r="X13" s="107" t="s">
+      <c r="X13" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="Y13" s="108"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="108"/>
-      <c r="AB13" s="108"/>
-      <c r="AC13" s="108"/>
-      <c r="AD13" s="108"/>
-      <c r="AE13" s="108"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="108"/>
-      <c r="AJ13" s="108"/>
-      <c r="AK13" s="108"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="124"/>
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="124"/>
+      <c r="AI13" s="124"/>
+      <c r="AJ13" s="124"/>
+      <c r="AK13" s="124"/>
       <c r="AL13" s="45"/>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.2">
@@ -17458,25 +17781,25 @@
         <v>74</v>
       </c>
       <c r="W14" s="45"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="110"/>
-      <c r="AA14" s="110"/>
-      <c r="AB14" s="110"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="110"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="110"/>
-      <c r="AG14" s="110"/>
-      <c r="AH14" s="110"/>
-      <c r="AI14" s="110"/>
-      <c r="AJ14" s="110"/>
-      <c r="AK14" s="110"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="126"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="126"/>
       <c r="AL14" s="45"/>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.2">
       <c r="W15" s="45"/>
-      <c r="X15" s="111" t="s">
+      <c r="X15" s="127" t="s">
         <v>23</v>
       </c>
       <c r="Y15" s="12" t="s">
@@ -17522,7 +17845,7 @@
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.2">
       <c r="W16" s="45"/>
-      <c r="X16" s="112"/>
+      <c r="X16" s="128"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
@@ -17727,43 +18050,43 @@
     </row>
     <row r="22" spans="23:38" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="23:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X23" s="103" t="s">
+      <c r="X23" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="104"/>
-      <c r="AB23" s="104"/>
-      <c r="AC23" s="104"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="104"/>
-      <c r="AF23" s="104"/>
-      <c r="AG23" s="104"/>
-      <c r="AH23" s="104"/>
-      <c r="AI23" s="104"/>
-      <c r="AJ23" s="104"/>
-      <c r="AK23" s="104"/>
+      <c r="Y23" s="120"/>
+      <c r="Z23" s="120"/>
+      <c r="AA23" s="120"/>
+      <c r="AB23" s="120"/>
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="120"/>
+      <c r="AE23" s="120"/>
+      <c r="AF23" s="120"/>
+      <c r="AG23" s="120"/>
+      <c r="AH23" s="120"/>
+      <c r="AI23" s="120"/>
+      <c r="AJ23" s="120"/>
+      <c r="AK23" s="120"/>
       <c r="AL23" s="56"/>
     </row>
     <row r="24" spans="23:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X24" s="105"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="106"/>
-      <c r="AI24" s="106"/>
-      <c r="AJ24" s="106"/>
-      <c r="AK24" s="106"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="122"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="122"/>
+      <c r="AB24" s="122"/>
+      <c r="AC24" s="122"/>
+      <c r="AD24" s="122"/>
+      <c r="AE24" s="122"/>
+      <c r="AF24" s="122"/>
+      <c r="AG24" s="122"/>
+      <c r="AH24" s="122"/>
+      <c r="AI24" s="122"/>
+      <c r="AJ24" s="122"/>
+      <c r="AK24" s="122"/>
       <c r="AL24" s="56"/>
     </row>
     <row r="25" spans="23:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X25" s="101" t="s">
+      <c r="X25" s="117" t="s">
         <v>23</v>
       </c>
       <c r="Y25" s="18" t="s">
@@ -17808,7 +18131,7 @@
       <c r="AL25" s="56"/>
     </row>
     <row r="26" spans="23:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X26" s="102"/>
+      <c r="X26" s="118"/>
       <c r="Y26" s="17" t="s">
         <v>36</v>
       </c>
@@ -18065,43 +18388,43 @@
       <c r="AL32" s="56"/>
     </row>
     <row r="33" spans="24:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X33" s="103" t="s">
+      <c r="X33" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="Y33" s="104"/>
-      <c r="Z33" s="104"/>
-      <c r="AA33" s="104"/>
-      <c r="AB33" s="104"/>
-      <c r="AC33" s="104"/>
-      <c r="AD33" s="104"/>
-      <c r="AE33" s="104"/>
-      <c r="AF33" s="104"/>
-      <c r="AG33" s="104"/>
-      <c r="AH33" s="104"/>
-      <c r="AI33" s="104"/>
-      <c r="AJ33" s="104"/>
-      <c r="AK33" s="104"/>
+      <c r="Y33" s="120"/>
+      <c r="Z33" s="120"/>
+      <c r="AA33" s="120"/>
+      <c r="AB33" s="120"/>
+      <c r="AC33" s="120"/>
+      <c r="AD33" s="120"/>
+      <c r="AE33" s="120"/>
+      <c r="AF33" s="120"/>
+      <c r="AG33" s="120"/>
+      <c r="AH33" s="120"/>
+      <c r="AI33" s="120"/>
+      <c r="AJ33" s="120"/>
+      <c r="AK33" s="120"/>
       <c r="AL33" s="56"/>
     </row>
     <row r="34" spans="24:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X34" s="105"/>
-      <c r="Y34" s="106"/>
-      <c r="Z34" s="106"/>
-      <c r="AA34" s="106"/>
-      <c r="AB34" s="106"/>
-      <c r="AC34" s="106"/>
-      <c r="AD34" s="106"/>
-      <c r="AE34" s="106"/>
-      <c r="AF34" s="106"/>
-      <c r="AG34" s="106"/>
-      <c r="AH34" s="106"/>
-      <c r="AI34" s="106"/>
-      <c r="AJ34" s="106"/>
-      <c r="AK34" s="106"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="122"/>
+      <c r="Z34" s="122"/>
+      <c r="AA34" s="122"/>
+      <c r="AB34" s="122"/>
+      <c r="AC34" s="122"/>
+      <c r="AD34" s="122"/>
+      <c r="AE34" s="122"/>
+      <c r="AF34" s="122"/>
+      <c r="AG34" s="122"/>
+      <c r="AH34" s="122"/>
+      <c r="AI34" s="122"/>
+      <c r="AJ34" s="122"/>
+      <c r="AK34" s="122"/>
       <c r="AL34" s="56"/>
     </row>
     <row r="35" spans="24:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X35" s="101" t="s">
+      <c r="X35" s="117" t="s">
         <v>23</v>
       </c>
       <c r="Y35" s="18" t="s">
@@ -18146,7 +18469,7 @@
       <c r="AL35" s="56"/>
     </row>
     <row r="36" spans="24:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X36" s="102"/>
+      <c r="X36" s="118"/>
       <c r="Y36" s="17" t="s">
         <v>36</v>
       </c>

--- a/revenue-streamlit/revenue 2023 2032 simulation yearly.xlsx
+++ b/revenue-streamlit/revenue 2023 2032 simulation yearly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8db03e8e420626a2/Office/AMG/Development/office/revenue-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="436" documentId="8_{63EB4802-57AD-0F44-B5C6-2C4816D8263D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B364056-EBCD-D24A-9ADF-EBEC2FBC4BDA}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="8_{63EB4802-57AD-0F44-B5C6-2C4816D8263D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{248819B7-12A8-1447-92D0-674CD8E15C14}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="880" windowWidth="26400" windowHeight="21500" activeTab="1" xr2:uid="{9DA9C85C-0230-484A-A9A5-3ABA148F8E1D}"/>
   </bookViews>
@@ -5849,37 +5849,37 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>161976157819.08929</c:v>
+                  <c:v>320000736080.66931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156931277231.19324</c:v>
+                  <c:v>338705101412.07971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>164834078247.94229</c:v>
+                  <c:v>369808233471.06494</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>166040948057.03406</c:v>
+                  <c:v>371183345680.15674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>166519091747.56903</c:v>
+                  <c:v>371661489370.69165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177744253021.12604</c:v>
+                  <c:v>384827536591.31122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>178189913279.12527</c:v>
+                  <c:v>386159518622.84161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>179289913279.12527</c:v>
+                  <c:v>387259518622.84161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>181060797378.78094</c:v>
+                  <c:v>389547519772.49731</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>181884425411.99948</c:v>
+                  <c:v>390543520155.71582</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>182484425411.99948</c:v>
+                  <c:v>391143520155.71582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5925,31 +5925,31 @@
                   <c:v>324960894070.00977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>345144987777.34271</c:v>
+                  <c:v>352415288250.59235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>346970583723.94958</c:v>
+                  <c:v>354240884197.19928</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>347206135374.48456</c:v>
+                  <c:v>354476435847.73425</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>346889187870.58691</c:v>
+                  <c:v>354609965690.89905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>347976588710.17834</c:v>
+                  <c:v>355922605204.02161</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>349076588710.17834</c:v>
+                  <c:v>357022605204.02161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>351169295259.83398</c:v>
+                  <c:v>359115311753.67725</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>352100197443.05249</c:v>
+                  <c:v>360046213936.89581</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>352700197443.05249</c:v>
+                  <c:v>360646213936.89581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6391,37 +6391,37 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.25761153783286894</c:v>
+                  <c:v>0.80651318506282987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22383145659188156</c:v>
+                  <c:v>0.84746186247561472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23700398956850918</c:v>
+                  <c:v>0.90940881520945416</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23369585926057126</c:v>
+                  <c:v>0.9061006849015163</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23035049158009344</c:v>
+                  <c:v>0.90275531722103852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24913612860508491</c:v>
+                  <c:v>0.92456308122655606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24534739747167941</c:v>
+                  <c:v>0.92228541358341343</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24534739747167941</c:v>
+                  <c:v>0.92228541358341343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24534739747167941</c:v>
+                  <c:v>0.92228541358341343</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24534739747167941</c:v>
+                  <c:v>0.92228541358341343</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24534739747167941</c:v>
+                  <c:v>0.92228541358341343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6926,37 +6926,37 @@
                 <c:formatCode>0,00#</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>90927402059.146957</c:v>
+                  <c:v>248951980320.72696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78095509903.296066</c:v>
+                  <c:v>259869334084.18256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82066817080.229385</c:v>
+                  <c:v>279770671830.10236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80744025805.932816</c:v>
+                  <c:v>278616122955.80579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78808369005.932816</c:v>
+                  <c:v>276680466155.80579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85633348823.043137</c:v>
+                  <c:v>284995854572.91614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84543756214.669556</c:v>
+                  <c:v>284567345064.54254</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84543756214.669556</c:v>
+                  <c:v>284567345064.54254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85214640314.325211</c:v>
+                  <c:v>285755346214.19824</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>85438268347.543762</c:v>
+                  <c:v>286151346597.41675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>85438268347.543762</c:v>
+                  <c:v>286151346597.41675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10193,10 +10193,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0EB90EA2-A127-E547-9D74-1813E6DCC22C}" name="Table2" displayName="Table2" ref="B12:M23" totalsRowCount="1" headerRowDxfId="285" dataDxfId="284" totalsRowDxfId="283" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B12:M22" xr:uid="{0EB90EA2-A127-E547-9D74-1813E6DCC22C}">
@@ -11120,47 +11116,47 @@
       </c>
       <c r="C3" s="20">
         <f>'TE Office'!C9</f>
-        <v>0.25761153783286894</v>
+        <v>0.80651318506282987</v>
       </c>
       <c r="D3" s="20">
         <f>'TE Office'!D9</f>
-        <v>0.22383145659188156</v>
+        <v>0.84746186247561472</v>
       </c>
       <c r="E3" s="20">
         <f>'TE Office'!E9</f>
-        <v>0.23700398956850918</v>
+        <v>0.90940881520945416</v>
       </c>
       <c r="F3" s="20">
         <f>'TE Office'!F9</f>
-        <v>0.23369585926057126</v>
+        <v>0.9061006849015163</v>
       </c>
       <c r="G3" s="20">
         <f>'TE Office'!G9</f>
-        <v>0.23035049158009344</v>
+        <v>0.90275531722103852</v>
       </c>
       <c r="H3" s="20">
         <f>'TE Office'!H9</f>
-        <v>0.24913612860508491</v>
+        <v>0.92456308122655606</v>
       </c>
       <c r="I3" s="20">
         <f>'TE Office'!I9</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="J3" s="20">
         <f>'TE Office'!J9</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="K3" s="20">
         <f>'TE Office'!K9</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="L3" s="20">
         <f>'TE Office'!L9</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="M3" s="20">
         <f>'TE Office'!M9</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
     </row>
     <row r="4" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11372,47 +11368,47 @@
       </c>
       <c r="C13" s="8">
         <f>'TE Office'!C7</f>
-        <v>90927402059.146957</v>
+        <v>248951980320.72696</v>
       </c>
       <c r="D13" s="8">
         <f>'TE Office'!D7</f>
-        <v>78095509903.296066</v>
+        <v>259869334084.18256</v>
       </c>
       <c r="E13" s="8">
         <f>'TE Office'!E7</f>
-        <v>82066817080.229385</v>
+        <v>279770671830.10236</v>
       </c>
       <c r="F13" s="8">
         <f>'TE Office'!F7</f>
-        <v>80744025805.932816</v>
+        <v>278616122955.80579</v>
       </c>
       <c r="G13" s="8">
         <f>'TE Office'!G7</f>
-        <v>78808369005.932816</v>
+        <v>276680466155.80579</v>
       </c>
       <c r="H13" s="8">
         <f>'TE Office'!H7</f>
-        <v>85633348823.043137</v>
+        <v>284995854572.91614</v>
       </c>
       <c r="I13" s="8">
         <f>'TE Office'!I7</f>
-        <v>84543756214.669556</v>
+        <v>284567345064.54254</v>
       </c>
       <c r="J13" s="8">
         <f>'TE Office'!J7</f>
-        <v>84543756214.669556</v>
+        <v>284567345064.54254</v>
       </c>
       <c r="K13" s="8">
         <f>'TE Office'!K7</f>
-        <v>85214640314.325211</v>
+        <v>285755346214.19824</v>
       </c>
       <c r="L13" s="8">
         <f>'TE Office'!L7</f>
-        <v>85438268347.543762</v>
+        <v>286151346597.41675</v>
       </c>
       <c r="M13" s="8">
         <f>'TE Office'!M7</f>
-        <v>85438268347.543762</v>
+        <v>286151346597.41675</v>
       </c>
       <c r="N13" s="22"/>
     </row>
@@ -11469,39 +11465,39 @@
       </c>
       <c r="E15" s="8" cm="1">
         <f t="array" ref="E15">Table36[2024]</f>
-        <v>19127965858.977055</v>
+        <v>24416595021.269829</v>
       </c>
       <c r="F15" s="8" cm="1">
         <f t="array" ref="F15">Table36[2025]</f>
-        <v>18769264012.674965</v>
+        <v>24057893174.967743</v>
       </c>
       <c r="G15" s="8" cm="1">
         <f t="array" ref="G15">Table36[2026]</f>
-        <v>18406524503.693913</v>
+        <v>23695153665.986694</v>
       </c>
       <c r="H15" s="8" cm="1">
         <f t="array" ref="H15">Table36[2027]</f>
-        <v>20443458377.990322</v>
+        <v>26059777935.39024</v>
       </c>
       <c r="I15" s="8" cm="1">
         <f t="array" ref="I15">Table36[2028]</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="J15" s="8" cm="1">
         <f t="array" ref="J15">Table36[2029]</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="K15" s="8" cm="1">
         <f t="array" ref="K15">Table36[2030]</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="L15" s="8" cm="1">
         <f t="array" ref="L15">Table36[2031]</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="M15" s="8" cm="1">
         <f t="array" ref="M15">Table36[2032]</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="N15" s="23"/>
     </row>
@@ -11569,39 +11565,39 @@
       </c>
       <c r="E17" s="8">
         <f>Table4[[#Totals],[2024]]</f>
-        <v>7663997929.2672911</v>
+        <v>9645669240.2241859</v>
       </c>
       <c r="F17" s="8">
         <f>Table4[[#Totals],[2025]]</f>
-        <v>7529590857.7576752</v>
+        <v>9511262168.7145729</v>
       </c>
       <c r="G17" s="8">
         <f>Table4[[#Totals],[2026]]</f>
-        <v>7393670857.2737103</v>
+        <v>9375342168.2306099</v>
       </c>
       <c r="H17" s="8">
         <f>Table4[[#Totals],[2027]]</f>
-        <v>8156918439.4239998</v>
+        <v>10261376702.336218</v>
       </c>
       <c r="I17" s="8">
         <f>Table4[[#Totals],[2028]]</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="J17" s="8">
         <f>Table4[[#Totals],[2029]]</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="K17" s="8">
         <f>Table4[[#Totals],[2030]]</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="L17" s="8">
         <f>Table4[[#Totals],[2031]]</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="M17" s="8">
         <f>Table4[[#Totals],[2032]]</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="N17" s="23"/>
     </row>
@@ -11850,90 +11846,90 @@
       </c>
       <c r="C23" s="9">
         <f>SUBTOTAL(109,Table2[2022])</f>
-        <v>161976157819.08929</v>
+        <v>320000736080.66931</v>
       </c>
       <c r="D23" s="9">
         <f>SUBTOTAL(109,Table2[2023])</f>
-        <v>156931277231.19324</v>
+        <v>338705101412.07971</v>
       </c>
       <c r="E23" s="9">
         <f>SUBTOTAL(109,Table2[2024])</f>
-        <v>164834078247.94229</v>
+        <v>369808233471.06494</v>
       </c>
       <c r="F23" s="9">
         <f>SUBTOTAL(109,Table2[2025])</f>
-        <v>166040948057.03406</v>
+        <v>371183345680.15674</v>
       </c>
       <c r="G23" s="9">
         <f>SUBTOTAL(109,Table2[2026])</f>
-        <v>166519091747.56903</v>
+        <v>371661489370.69165</v>
       </c>
       <c r="H23" s="9">
         <f>SUBTOTAL(109,Table2[2027])</f>
-        <v>177744253021.12604</v>
+        <v>384827536591.31122</v>
       </c>
       <c r="I23" s="9">
         <f>SUBTOTAL(109,Table2[2028])</f>
-        <v>178189913279.12527</v>
+        <v>386159518622.84161</v>
       </c>
       <c r="J23" s="9">
         <f>SUBTOTAL(109,Table2[2029])</f>
-        <v>179289913279.12527</v>
+        <v>387259518622.84161</v>
       </c>
       <c r="K23" s="9">
         <f>SUBTOTAL(109,Table2[2030])</f>
-        <v>181060797378.78094</v>
+        <v>389547519772.49731</v>
       </c>
       <c r="L23" s="9">
         <f>SUBTOTAL(109,Table2[2031])</f>
-        <v>181884425411.99948</v>
+        <v>390543520155.71582</v>
       </c>
       <c r="M23" s="9">
         <f>SUBTOTAL(109,Table2[2032])</f>
-        <v>182484425411.99948</v>
+        <v>391143520155.71582</v>
       </c>
       <c r="N23" s="24"/>
     </row>
     <row r="24" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="8">
         <f>Table2[[#Totals],[2023]]/14750</f>
-        <v>10639408.625843609</v>
+        <v>22963057.722852863</v>
       </c>
       <c r="E24" s="8">
         <f>Table2[[#Totals],[2024]]/14750</f>
-        <v>11175191.745623207</v>
+        <v>25071744.642106097</v>
       </c>
       <c r="F24" s="8">
         <f>Table2[[#Totals],[2025]]/14750</f>
-        <v>11257013.42759553</v>
+        <v>25164972.588485204</v>
       </c>
       <c r="G24" s="8">
         <f>Table2[[#Totals],[2026]]/14750</f>
-        <v>11289429.948987732</v>
+        <v>25197389.1098774</v>
       </c>
       <c r="H24" s="8">
         <f>Table2[[#Totals],[2027]]/14750</f>
-        <v>12050457.831940748</v>
+        <v>26090002.480766863</v>
       </c>
       <c r="I24" s="8">
         <f>Table2[[#Totals],[2028]]/14750</f>
-        <v>12080672.086720357</v>
+        <v>26180306.347311296</v>
       </c>
       <c r="J24" s="8">
         <f>Table2[[#Totals],[2029]]/14750</f>
-        <v>12155248.357906798</v>
+        <v>26254882.618497737</v>
       </c>
       <c r="K24" s="8">
         <f>Table2[[#Totals],[2030]]/14750</f>
-        <v>12275308.296866504</v>
+        <v>26410001.340508293</v>
       </c>
       <c r="L24" s="8">
         <f>Table2[[#Totals],[2031]]/14750</f>
-        <v>12331147.485559287</v>
+        <v>26477526.790218022</v>
       </c>
       <c r="M24" s="8">
         <f>Table2[[#Totals],[2032]]/14750</f>
-        <v>12371825.451660981</v>
+        <v>26518204.756319717</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12113,39 +12109,39 @@
       </c>
       <c r="E30" s="8" cm="1">
         <f t="array" ref="E30">Table36[2024]</f>
-        <v>19127965858.977055</v>
+        <v>24416595021.269829</v>
       </c>
       <c r="F30" s="8" cm="1">
         <f t="array" ref="F30">Table36[2025]</f>
-        <v>18769264012.674965</v>
+        <v>24057893174.967743</v>
       </c>
       <c r="G30" s="8" cm="1">
         <f t="array" ref="G30">Table36[2026]</f>
-        <v>18406524503.693913</v>
+        <v>23695153665.986694</v>
       </c>
       <c r="H30" s="8" cm="1">
         <f t="array" ref="H30">Table36[2027]</f>
-        <v>20443458377.990322</v>
+        <v>26059777935.39024</v>
       </c>
       <c r="I30" s="8" cm="1">
         <f t="array" ref="I30">Table36[2028]</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="J30" s="8" cm="1">
         <f t="array" ref="J30">Table36[2029]</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="K30" s="8" cm="1">
         <f t="array" ref="K30">Table36[2030]</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="L30" s="8" cm="1">
         <f t="array" ref="L30">Table36[2031]</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="M30" s="8" cm="1">
         <f t="array" ref="M30">Table36[2032]</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="N30" s="23"/>
     </row>
@@ -12213,39 +12209,39 @@
       </c>
       <c r="E32" s="8">
         <f>Table4[[#Totals],[2024]]</f>
-        <v>7663997929.2672911</v>
+        <v>9645669240.2241859</v>
       </c>
       <c r="F32" s="8">
         <f>Table4[[#Totals],[2025]]</f>
-        <v>7529590857.7576752</v>
+        <v>9511262168.7145729</v>
       </c>
       <c r="G32" s="8">
         <f>Table4[[#Totals],[2026]]</f>
-        <v>7393670857.2737103</v>
+        <v>9375342168.2306099</v>
       </c>
       <c r="H32" s="8">
         <f>Table4[[#Totals],[2027]]</f>
-        <v>8156918439.4239998</v>
+        <v>10261376702.336218</v>
       </c>
       <c r="I32" s="8">
         <f>Table4[[#Totals],[2028]]</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="J32" s="8">
         <f>Table4[[#Totals],[2029]]</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="K32" s="8">
         <f>Table4[[#Totals],[2030]]</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="L32" s="8">
         <f>Table4[[#Totals],[2031]]</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="M32" s="8">
         <f>Table4[[#Totals],[2032]]</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="N32" s="23"/>
     </row>
@@ -12491,39 +12487,39 @@
       </c>
       <c r="E38" s="9">
         <f>SUBTOTAL(109,Table211[2024])</f>
-        <v>345144987777.34271</v>
+        <v>352415288250.59235</v>
       </c>
       <c r="F38" s="9">
         <f>SUBTOTAL(109,Table211[2025])</f>
-        <v>346970583723.94958</v>
+        <v>354240884197.19928</v>
       </c>
       <c r="G38" s="9">
         <f>SUBTOTAL(109,Table211[2026])</f>
-        <v>347206135374.48456</v>
+        <v>354476435847.73425</v>
       </c>
       <c r="H38" s="9">
         <f>SUBTOTAL(109,Table211[2027])</f>
-        <v>346889187870.58691</v>
+        <v>354609965690.89905</v>
       </c>
       <c r="I38" s="9">
         <f>SUBTOTAL(109,Table211[2028])</f>
-        <v>347976588710.17834</v>
+        <v>355922605204.02161</v>
       </c>
       <c r="J38" s="9">
         <f>SUBTOTAL(109,Table211[2029])</f>
-        <v>349076588710.17834</v>
+        <v>357022605204.02161</v>
       </c>
       <c r="K38" s="9">
         <f>SUBTOTAL(109,Table211[2030])</f>
-        <v>351169295259.83398</v>
+        <v>359115311753.67725</v>
       </c>
       <c r="L38" s="9">
         <f>SUBTOTAL(109,Table211[2031])</f>
-        <v>352100197443.05249</v>
+        <v>360046213936.89581</v>
       </c>
       <c r="M38" s="9">
         <f>SUBTOTAL(109,Table211[2032])</f>
-        <v>352700197443.05249</v>
+        <v>360646213936.89581</v>
       </c>
       <c r="N38" s="24"/>
     </row>
@@ -12534,39 +12530,39 @@
       </c>
       <c r="E39" s="8">
         <f>Table211[[#Totals],[2024]]/14750</f>
-        <v>23399660.188294422</v>
+        <v>23892561.915294398</v>
       </c>
       <c r="F39" s="8">
         <f>Table211[[#Totals],[2025]]/14750</f>
-        <v>23523429.405013531</v>
+        <v>24016331.132013511</v>
       </c>
       <c r="G39" s="8">
         <f>Table211[[#Totals],[2026]]/14750</f>
-        <v>23539399.00843963</v>
+        <v>24032300.73543961</v>
       </c>
       <c r="H39" s="8">
         <f>Table211[[#Totals],[2027]]/14750</f>
-        <v>23517911.042073689</v>
+        <v>24041353.606162649</v>
       </c>
       <c r="I39" s="8">
         <f>Table211[[#Totals],[2028]]/14750</f>
-        <v>23591633.132893447</v>
+        <v>24130346.115526889</v>
       </c>
       <c r="J39" s="8">
         <f>Table211[[#Totals],[2029]]/14750</f>
-        <v>23666209.404079888</v>
+        <v>24204922.38671333</v>
       </c>
       <c r="K39" s="8">
         <f>Table211[[#Totals],[2030]]/14750</f>
-        <v>23808087.814226031</v>
+        <v>24346800.796859473</v>
       </c>
       <c r="L39" s="8">
         <f>Table211[[#Totals],[2031]]/14750</f>
-        <v>23871199.826647628</v>
+        <v>24409912.809281074</v>
       </c>
       <c r="M39" s="8">
         <f>Table211[[#Totals],[2032]]/14750</f>
-        <v>23911877.792749323</v>
+        <v>24450590.775382768</v>
       </c>
     </row>
   </sheetData>
@@ -12585,6 +12581,62 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{41AC8C04-055F-BC46-990B-A8AFCC66F91D}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Summary!C13:M13</xm:f>
+              <xm:sqref>N13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C14:M14</xm:f>
+              <xm:sqref>N14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C15:M15</xm:f>
+              <xm:sqref>N15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C16:M16</xm:f>
+              <xm:sqref>N16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C17:M17</xm:f>
+              <xm:sqref>N17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C18:M18</xm:f>
+              <xm:sqref>N18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C19:M19</xm:f>
+              <xm:sqref>N19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C20:M20</xm:f>
+              <xm:sqref>N20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C21:M21</xm:f>
+              <xm:sqref>N21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C22:M22</xm:f>
+              <xm:sqref>N22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Summary!C23:M23</xm:f>
+              <xm:sqref>N23</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{DDB91947-C232-1C4C-819B-643D68F76A89}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -12641,62 +12693,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{41AC8C04-055F-BC46-990B-A8AFCC66F91D}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Summary!C13:M13</xm:f>
-              <xm:sqref>N13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C14:M14</xm:f>
-              <xm:sqref>N14</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C15:M15</xm:f>
-              <xm:sqref>N15</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C16:M16</xm:f>
-              <xm:sqref>N16</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C17:M17</xm:f>
-              <xm:sqref>N17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C18:M18</xm:f>
-              <xm:sqref>N18</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C19:M19</xm:f>
-              <xm:sqref>N19</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C20:M20</xm:f>
-              <xm:sqref>N20</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C21:M21</xm:f>
-              <xm:sqref>N21</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C22:M22</xm:f>
-              <xm:sqref>N22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Summary!C23:M23</xm:f>
-              <xm:sqref>N23</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
@@ -12729,47 +12725,47 @@
       </c>
       <c r="F2" s="43">
         <f>Summary!$C$3</f>
-        <v>0.25761153783286894</v>
+        <v>0.80651318506282987</v>
       </c>
       <c r="G2" s="43">
         <f>Summary!$D$3</f>
-        <v>0.22383145659188156</v>
+        <v>0.84746186247561472</v>
       </c>
       <c r="H2" s="62">
         <f>Summary!$E$3</f>
-        <v>0.23700398956850918</v>
+        <v>0.90940881520945416</v>
       </c>
       <c r="I2" s="63">
         <f>Summary!$F$3</f>
-        <v>0.23369585926057126</v>
+        <v>0.9061006849015163</v>
       </c>
       <c r="J2" s="63">
         <f>Summary!$G$3</f>
-        <v>0.23035049158009344</v>
+        <v>0.90275531722103852</v>
       </c>
       <c r="K2" s="63">
         <f>Summary!$H$3</f>
-        <v>0.24913612860508491</v>
+        <v>0.92456308122655606</v>
       </c>
       <c r="L2" s="63">
         <f>Summary!$I$3</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="M2" s="63">
         <f>Summary!$J$3</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="N2" s="63">
         <f>Summary!$K$3</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="O2" s="63">
         <f>Summary!$L$3</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="P2" s="63">
         <f>Summary!$M$3</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
     </row>
     <row r="3" spans="2:17" s="44" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -12913,39 +12909,39 @@
       </c>
       <c r="H8" s="81">
         <f>Table4[[#Totals],[2023]]+(H2-G2)*100*$I$11</f>
-        <v>7663997929.2672911</v>
+        <v>9645669240.2241859</v>
       </c>
       <c r="I8" s="82">
         <f>Table4[[#Totals],[2024]]+(I2-H2)*100*$I$11</f>
-        <v>7529590857.7576752</v>
+        <v>9511262168.7145729</v>
       </c>
       <c r="J8" s="82">
         <f>Table4[[#Totals],[2025]]+(J2-I2)*100*$I$11</f>
-        <v>7393670857.2737103</v>
+        <v>9375342168.2306099</v>
       </c>
       <c r="K8" s="82">
         <f>Table4[[#Totals],[2026]]+(K2-J2)*100*$I$11</f>
-        <v>8156918439.4239998</v>
+        <v>10261376702.336218</v>
       </c>
       <c r="L8" s="82">
         <f>Table4[[#Totals],[2027]]+(L2-K2)*100*$I$11</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="M8" s="82">
         <f>Table4[[#Totals],[2028]]+(M2-L2)*100*$I$11</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="N8" s="82">
         <f>Table4[[#Totals],[2029]]+(N2-M2)*100*$I$11</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="O8" s="82">
         <f>Table4[[#Totals],[2030]]+(O2-N2)*100*$I$11</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="P8" s="82">
         <f>Table4[[#Totals],[2031]]+(P2-O2)*100*$I$11</f>
-        <v>8002984885.1270523</v>
+        <v>10168836624.016922</v>
       </c>
       <c r="Q8" s="79"/>
     </row>
@@ -13293,37 +13289,37 @@
         <v>65</v>
       </c>
       <c r="C5" s="32">
-        <v>77781892471.217407</v>
+        <v>205647908168.79742</v>
       </c>
       <c r="D5" s="33">
-        <v>66672574024.878815</v>
+        <v>213915213433.65952</v>
       </c>
       <c r="E5" s="33">
-        <v>69325573983.726395</v>
+        <v>229176264737.38779</v>
       </c>
       <c r="F5" s="33">
-        <v>67964149813.726395</v>
+        <v>227814840567.38779</v>
       </c>
       <c r="G5" s="33">
-        <v>66211360263.726395</v>
+        <v>226062051017.38779</v>
       </c>
       <c r="H5" s="33">
-        <v>71330708143.726395</v>
+        <v>231990869097.38779</v>
       </c>
       <c r="I5" s="33">
-        <v>70231562088.682358</v>
+        <v>231296458142.34375</v>
       </c>
       <c r="J5" s="33">
-        <v>70231562088.682358</v>
+        <v>231296458142.34375</v>
       </c>
       <c r="K5" s="33">
-        <v>70231562088.682358</v>
+        <v>231296458142.34375</v>
       </c>
       <c r="L5" s="33">
-        <v>70231562088.682358</v>
+        <v>231296458142.34375</v>
       </c>
       <c r="M5" s="33">
-        <v>70231562088.682358</v>
+        <v>231296458142.34375</v>
       </c>
       <c r="N5" s="38"/>
       <c r="O5" s="107"/>
@@ -13334,37 +13330,37 @@
         <v>66</v>
       </c>
       <c r="C6" s="32">
-        <v>13145509587.929544</v>
+        <v>43304072151.929543</v>
       </c>
       <c r="D6" s="33">
-        <v>11422935878.417253</v>
+        <v>45954120650.523056</v>
       </c>
       <c r="E6" s="33">
-        <v>12741243096.502985</v>
+        <v>50594407092.714592</v>
       </c>
       <c r="F6" s="33">
-        <v>12779875992.206425</v>
+        <v>50801282388.41803</v>
       </c>
       <c r="G6" s="33">
-        <v>12597008742.206425</v>
+        <v>50618415138.41803</v>
       </c>
       <c r="H6" s="33">
-        <v>14302640679.316746</v>
+        <v>53004985475.528358</v>
       </c>
       <c r="I6" s="33">
-        <v>14312194125.987206</v>
+        <v>53270886922.198814</v>
       </c>
       <c r="J6" s="33">
-        <v>14312194125.987206</v>
+        <v>53270886922.198814</v>
       </c>
       <c r="K6" s="33">
-        <v>14983078225.642855</v>
+        <v>54458888071.854462</v>
       </c>
       <c r="L6" s="33">
-        <v>15206706258.861404</v>
+        <v>54854888455.073013</v>
       </c>
       <c r="M6" s="33">
-        <v>15206706258.861404</v>
+        <v>54854888455.073013</v>
       </c>
       <c r="N6" s="39"/>
       <c r="O6" s="107"/>
@@ -13375,37 +13371,37 @@
         <v>20</v>
       </c>
       <c r="C7" s="34">
-        <v>90927402059.146957</v>
+        <v>248951980320.72696</v>
       </c>
       <c r="D7" s="35">
-        <v>78095509903.296066</v>
+        <v>259869334084.18256</v>
       </c>
       <c r="E7" s="35">
-        <v>82066817080.229385</v>
+        <v>279770671830.10236</v>
       </c>
       <c r="F7" s="35">
-        <v>80744025805.932816</v>
+        <v>278616122955.80579</v>
       </c>
       <c r="G7" s="35">
-        <v>78808369005.932816</v>
+        <v>276680466155.80579</v>
       </c>
       <c r="H7" s="35">
-        <v>85633348823.043137</v>
+        <v>284995854572.91614</v>
       </c>
       <c r="I7" s="35">
-        <v>84543756214.669556</v>
+        <v>284567345064.54254</v>
       </c>
       <c r="J7" s="35">
-        <v>84543756214.669556</v>
+        <v>284567345064.54254</v>
       </c>
       <c r="K7" s="35">
-        <v>85214640314.325211</v>
+        <v>285755346214.19824</v>
       </c>
       <c r="L7" s="35">
-        <v>85438268347.543762</v>
+        <v>286151346597.41675</v>
       </c>
       <c r="M7" s="35">
-        <v>85438268347.543762</v>
+        <v>286151346597.41675</v>
       </c>
       <c r="N7" s="40"/>
       <c r="O7" s="109"/>
@@ -13416,37 +13412,37 @@
         <v>67</v>
       </c>
       <c r="C8" s="32">
-        <v>15646.416176106604</v>
+        <v>48984.76617610659</v>
       </c>
       <c r="D8" s="33">
-        <v>13594.73318859197</v>
+        <v>51471.844410456622</v>
       </c>
       <c r="E8" s="33">
-        <v>14394.786380229363</v>
+        <v>55234.283823958656</v>
       </c>
       <c r="F8" s="33">
-        <v>14193.862213562694</v>
+        <v>55033.359657291992</v>
       </c>
       <c r="G8" s="33">
-        <v>13990.676380229363</v>
+        <v>54830.173823958663</v>
       </c>
       <c r="H8" s="33">
-        <v>15131.649713562694</v>
+        <v>56154.700490625335</v>
       </c>
       <c r="I8" s="33">
-        <v>14901.535547903337</v>
+        <v>56016.362991632639</v>
       </c>
       <c r="J8" s="33">
-        <v>14901.535547903337</v>
+        <v>56016.362991632639</v>
       </c>
       <c r="K8" s="33">
-        <v>14901.535547903337</v>
+        <v>56016.362991632639</v>
       </c>
       <c r="L8" s="33">
-        <v>14901.535547903337</v>
+        <v>56016.362991632639</v>
       </c>
       <c r="M8" s="33">
-        <v>14901.535547903337</v>
+        <v>56016.362991632639</v>
       </c>
       <c r="N8" s="39"/>
       <c r="O8" s="107"/>
@@ -13457,37 +13453,37 @@
         <v>68</v>
       </c>
       <c r="C9" s="36">
-        <v>0.25761153783286894</v>
+        <v>0.80651318506282987</v>
       </c>
       <c r="D9" s="37">
-        <v>0.22383145659188156</v>
+        <v>0.84746186247561472</v>
       </c>
       <c r="E9" s="37">
-        <v>0.23700398956850918</v>
+        <v>0.90940881520945416</v>
       </c>
       <c r="F9" s="37">
-        <v>0.23369585926057126</v>
+        <v>0.9061006849015163</v>
       </c>
       <c r="G9" s="37">
-        <v>0.23035049158009344</v>
+        <v>0.90275531722103852</v>
       </c>
       <c r="H9" s="37">
-        <v>0.24913612860508491</v>
+        <v>0.92456308122655606</v>
       </c>
       <c r="I9" s="37">
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="J9" s="37">
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="K9" s="37">
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="L9" s="37">
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="M9" s="37">
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="N9" s="41"/>
       <c r="O9" s="107"/>
@@ -15287,7 +15283,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{27CA99C9-4EC6-5540-A65D-D31078C783F3}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C71BF03F-71C7-CA48-A8E0-2F94EBAEAF89}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -15298,24 +15294,56 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C47:M47</xm:f>
-              <xm:sqref>N47</xm:sqref>
+              <xm:f>'TE Office Old'!C5:M5</xm:f>
+              <xm:sqref>N5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C48:M48</xm:f>
-              <xm:sqref>N48</xm:sqref>
+              <xm:f>'TE Office Old'!C6:M6</xm:f>
+              <xm:sqref>N6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C49:M49</xm:f>
-              <xm:sqref>N49</xm:sqref>
+              <xm:f>'TE Office Old'!C7:M7</xm:f>
+              <xm:sqref>N7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C50:M50</xm:f>
-              <xm:sqref>N50</xm:sqref>
+              <xm:f>'TE Office Old'!C8:M8</xm:f>
+              <xm:sqref>N8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C51:M51</xm:f>
-              <xm:sqref>N51</xm:sqref>
+              <xm:f>'TE Office Old'!C9:M9</xm:f>
+              <xm:sqref>N9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D6EB2B09-F17B-3C44-89C9-D9FDDB189892}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C20:M20</xm:f>
+              <xm:sqref>N20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C21:M21</xm:f>
+              <xm:sqref>N21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C22:M22</xm:f>
+              <xm:sqref>N22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C23:M23</xm:f>
+              <xm:sqref>N23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'TE Office Old'!C24:M24</xm:f>
+              <xm:sqref>N24</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -15351,7 +15379,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D6EB2B09-F17B-3C44-89C9-D9FDDB189892}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{27CA99C9-4EC6-5540-A65D-D31078C783F3}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -15362,56 +15390,24 @@
           <x14:colorLow theme="5" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C20:M20</xm:f>
-              <xm:sqref>N20</xm:sqref>
+              <xm:f>'TE Office Old'!C47:M47</xm:f>
+              <xm:sqref>N47</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C21:M21</xm:f>
-              <xm:sqref>N21</xm:sqref>
+              <xm:f>'TE Office Old'!C48:M48</xm:f>
+              <xm:sqref>N48</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C22:M22</xm:f>
-              <xm:sqref>N22</xm:sqref>
+              <xm:f>'TE Office Old'!C49:M49</xm:f>
+              <xm:sqref>N49</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C23:M23</xm:f>
-              <xm:sqref>N23</xm:sqref>
+              <xm:f>'TE Office Old'!C50:M50</xm:f>
+              <xm:sqref>N50</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'TE Office Old'!C24:M24</xm:f>
-              <xm:sqref>N24</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C71BF03F-71C7-CA48-A8E0-2F94EBAEAF89}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C5:M5</xm:f>
-              <xm:sqref>N5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C6:M6</xm:f>
-              <xm:sqref>N6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C7:M7</xm:f>
-              <xm:sqref>N7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C8:M8</xm:f>
-              <xm:sqref>N8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'TE Office Old'!C9:M9</xm:f>
-              <xm:sqref>N9</xm:sqref>
+              <xm:f>'TE Office Old'!C51:M51</xm:f>
+              <xm:sqref>N51</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -16872,6 +16868,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{990FA0E3-C61F-6E4B-84B3-0E05946D3E2D}">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>SH!C9:P9</xm:f>
+              <xm:sqref>Q9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{FF5E32F6-76BA-B445-AB9C-94E4D0BCC643}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -16885,22 +16897,6 @@
             <x14:sparkline>
               <xm:f>SH!C4:P4</xm:f>
               <xm:sqref>Q4</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{990FA0E3-C61F-6E4B-84B3-0E05946D3E2D}">
-          <x14:colorSeries theme="5"/>
-          <x14:colorNegative theme="6"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
-          <x14:colorLast theme="5" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
-          <x14:colorLow theme="5" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>SH!C9:P9</xm:f>
-              <xm:sqref>Q9</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -17210,47 +17206,47 @@
       </c>
       <c r="F2" s="43">
         <f>Summary!$C$3</f>
-        <v>0.25761153783286894</v>
+        <v>0.80651318506282987</v>
       </c>
       <c r="G2" s="62">
         <f>Summary!$D$3</f>
-        <v>0.22383145659188156</v>
+        <v>0.84746186247561472</v>
       </c>
       <c r="H2" s="63">
         <f>Summary!$E$3</f>
-        <v>0.23700398956850918</v>
+        <v>0.90940881520945416</v>
       </c>
       <c r="I2" s="63">
         <f>Summary!$F$3</f>
-        <v>0.23369585926057126</v>
+        <v>0.9061006849015163</v>
       </c>
       <c r="J2" s="63">
         <f>Summary!$G$3</f>
-        <v>0.23035049158009344</v>
+        <v>0.90275531722103852</v>
       </c>
       <c r="K2" s="63">
         <f>Summary!$H$3</f>
-        <v>0.24913612860508491</v>
+        <v>0.92456308122655606</v>
       </c>
       <c r="L2" s="63">
         <f>Summary!$I$3</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="M2" s="63">
         <f>Summary!$J$3</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="N2" s="63">
         <f>Summary!$K$3</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="O2" s="63">
         <f>Summary!$L$3</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
       <c r="P2" s="63">
         <f>Summary!$M$3</f>
-        <v>0.24534739747167941</v>
+        <v>0.92228541358341343</v>
       </c>
     </row>
     <row r="3" spans="2:38" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17340,39 +17336,39 @@
       </c>
       <c r="H4" s="67">
         <f>Table36[[#This Row],[2023]]+(H2-G2)*100*$H$9</f>
-        <v>19127965858.977055</v>
+        <v>24416595021.269829</v>
       </c>
       <c r="I4" s="67">
         <f>Table36[[#This Row],[2024]]+(I2-H2)*100*$H$9</f>
-        <v>18769264012.674965</v>
+        <v>24057893174.967743</v>
       </c>
       <c r="J4" s="67">
         <f>Table36[[#This Row],[2025]]+(J2-I2)*100*$H$9</f>
-        <v>18406524503.693913</v>
+        <v>23695153665.986694</v>
       </c>
       <c r="K4" s="67">
         <f>Table36[[#This Row],[2026]]+(K2-J2)*100*$H$9</f>
-        <v>20443458377.990322</v>
+        <v>26059777935.39024</v>
       </c>
       <c r="L4" s="67">
         <f>Table36[[#This Row],[2027]]+(L2-K2)*100*$H$9</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="M4" s="67">
         <f>Table36[[#This Row],[2028]]+(M2-L2)*100*$H$9</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="N4" s="67">
         <f>Table36[[#This Row],[2029]]+(N2-M2)*100*$H$9</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="O4" s="67">
         <f>Table36[[#This Row],[2030]]+(O2-N2)*100*$H$9</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="P4" s="67">
         <f>Table36[[#This Row],[2031]]+(P2-O2)*100*$H$9</f>
-        <v>20032644798.660099</v>
+        <v>25812809553.613567</v>
       </c>
       <c r="Q4" s="79"/>
       <c r="W4" s="45"/>
